--- a/src/ontology/terms-extraction/cpptraj-10k-occurence_merged.xlsx
+++ b/src/ontology/terms-extraction/cpptraj-10k-occurence_merged.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\fathoni\github\molsim-ontology\src\ontology\terms-extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55248DC7-AB35-47C3-B61A-69E37E2366E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08A33E4-8B84-482D-9D43-C70A0050B302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1710" yWindow="-18120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{41106041-1982-4E74-9156-BB0487A0D691}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="2" xr2:uid="{41106041-1982-4E74-9156-BB0487A0D691}"/>
   </bookViews>
   <sheets>
     <sheet name="deduplicated" sheetId="1" r:id="rId1"/>
@@ -4920,25 +4920,6 @@
         <name val="Arial"/>
         <family val="2"/>
         <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
       </font>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -5056,6 +5037,25 @@
       </font>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -5070,15 +5070,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C4B6DB4-963D-4C30-A55C-C98D189B16BC}" name="Table1" displayName="Table1" ref="A1:F427" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C4B6DB4-963D-4C30-A55C-C98D189B16BC}" name="Table1" displayName="Table1" ref="A1:F427" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:F427" xr:uid="{0C4B6DB4-963D-4C30-A55C-C98D189B16BC}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{4773755D-E1AF-448F-B447-27A0AF53A910}" name="SeqNo" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{5400D0B5-7DA4-4FA3-AA49-BBB83134F695}" name="Term" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{594D70C1-00FC-4BDE-8F76-BB819F43268F}" name="Variable" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{7A2D1F6C-9965-4D40-95C3-06D2F350BE72}" name="Description" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{AFD0A349-9A1D-4EC7-B721-75B7F792D66A}" name="Cat1|Cat2|..." dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{1BB5AD3F-1DCC-4382-AAB2-6B0B6D184443}" name="freq" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{4773755D-E1AF-448F-B447-27A0AF53A910}" name="SeqNo" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{5400D0B5-7DA4-4FA3-AA49-BBB83134F695}" name="Term" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{594D70C1-00FC-4BDE-8F76-BB819F43268F}" name="Variable" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{7A2D1F6C-9965-4D40-95C3-06D2F350BE72}" name="Description" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{AFD0A349-9A1D-4EC7-B721-75B7F792D66A}" name="Cat1|Cat2|..." dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{1BB5AD3F-1DCC-4382-AAB2-6B0B6D184443}" name="freq" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16334,8 +16334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBED5332-DFA5-46E1-A3BF-C31FBE96C021}">
   <dimension ref="A1:H427"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A415" workbookViewId="0">
-      <selection sqref="A1:F427"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="D122" sqref="B122:D122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/ontology/terms-extraction/cpptraj-10k-occurence_merged.xlsx
+++ b/src/ontology/terms-extraction/cpptraj-10k-occurence_merged.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\fathoni\github\molsim-ontology\src\ontology\terms-extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08A33E4-8B84-482D-9D43-C70A0050B302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DA9EE6-57BB-4488-9F5E-5EC989DB2C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="2" xr2:uid="{41106041-1982-4E74-9156-BB0487A0D691}"/>
+    <workbookView xWindow="1710" yWindow="-18120" windowWidth="29040" windowHeight="17520" activeTab="3" xr2:uid="{41106041-1982-4E74-9156-BB0487A0D691}"/>
   </bookViews>
   <sheets>
     <sheet name="deduplicated" sheetId="1" r:id="rId1"/>
-    <sheet name="missing_term_added" sheetId="2" r:id="rId2"/>
-    <sheet name="print" sheetId="3" r:id="rId3"/>
+    <sheet name="false-duplicates-readded" sheetId="2" r:id="rId2"/>
+    <sheet name="print-for-expert-selection" sheetId="3" r:id="rId3"/>
+    <sheet name="expert-selected" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4168" uniqueCount="1599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5880" uniqueCount="1601">
   <si>
     <t>Term</t>
   </si>
@@ -4833,6 +4834,12 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>skip? (-=yes)</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -4878,7 +4885,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -4886,11 +4893,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4899,11 +4935,247 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="22">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -5070,17 +5342,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C4B6DB4-963D-4C30-A55C-C98D189B16BC}" name="Table1" displayName="Table1" ref="A1:F427" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C4B6DB4-963D-4C30-A55C-C98D189B16BC}" name="Table1" displayName="Table1" ref="A1:F427" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="A1:F427" xr:uid="{0C4B6DB4-963D-4C30-A55C-C98D189B16BC}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{4773755D-E1AF-448F-B447-27A0AF53A910}" name="SeqNo" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{5400D0B5-7DA4-4FA3-AA49-BBB83134F695}" name="Term" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{594D70C1-00FC-4BDE-8F76-BB819F43268F}" name="Variable" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{7A2D1F6C-9965-4D40-95C3-06D2F350BE72}" name="Description" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{AFD0A349-9A1D-4EC7-B721-75B7F792D66A}" name="Cat1|Cat2|..." dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{1BB5AD3F-1DCC-4382-AAB2-6B0B6D184443}" name="freq" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{4773755D-E1AF-448F-B447-27A0AF53A910}" name="SeqNo" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{5400D0B5-7DA4-4FA3-AA49-BBB83134F695}" name="Term" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{594D70C1-00FC-4BDE-8F76-BB819F43268F}" name="Variable" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{7A2D1F6C-9965-4D40-95C3-06D2F350BE72}" name="Description" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{AFD0A349-9A1D-4EC7-B721-75B7F792D66A}" name="Cat1|Cat2|..." dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{1BB5AD3F-1DCC-4382-AAB2-6B0B6D184443}" name="freq" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{42C18C25-2D20-4E1B-9B5E-51A0D85C0CB3}" name="Table13" displayName="Table13" ref="B1:G427" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="B1:G427" xr:uid="{42C18C25-2D20-4E1B-9B5E-51A0D85C0CB3}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{DDE9457E-4DB7-438B-9719-987E4EA0E53F}" name="SeqNo" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{C184ED0B-4B92-47F3-8143-13793E62ABC8}" name="Term" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{98037EF8-1E7F-47C4-8EAB-395406751DA4}" name="Variable" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{DF31CB15-8169-4C70-B5D5-24033FEC7253}" name="Description" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{F50EBF01-0CD6-464A-ABA9-250B251F1671}" name="Cat1|Cat2|..." dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{9E567AE2-8551-458F-BFA7-A0D8A467E1B4}" name="freq" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{329D34C6-6AFA-4799-96FC-1A9B7A89128F}" name="Table3" displayName="Table3" ref="A1:A427" totalsRowShown="0" headerRowDxfId="4" dataDxfId="5" headerRowBorderDxfId="2" tableBorderDxfId="3" totalsRowBorderDxfId="1">
+  <autoFilter ref="A1:A427" xr:uid="{329D34C6-6AFA-4799-96FC-1A9B7A89128F}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{444B4197-2A6A-4631-9469-9762CA8CBBDD}" name="skip? (-=yes)" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -5384,7 +5681,7 @@
   <dimension ref="A1:H414"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="A1:H414"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15982,7 +16279,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:P13"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16334,8 +16631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBED5332-DFA5-46E1-A3BF-C31FBE96C021}">
   <dimension ref="A1:H427"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="D122" sqref="B122:D122"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E17" sqref="A1:F427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -24878,4 +25175,8978 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23C3501C-AE45-46A7-8757-17633D9B7137}">
+  <dimension ref="A1:G427"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A430" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.90625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="8.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="29.26953125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="31" style="4" customWidth="1"/>
+    <col min="5" max="5" width="70.81640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="17.453125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="6.81640625" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1597</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="6"/>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="7"/>
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="7"/>
+      <c r="B4" s="3">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A5" s="7"/>
+      <c r="B5" s="3">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A6" s="7"/>
+      <c r="B6" s="3">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="7"/>
+      <c r="B7" s="3">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="7"/>
+      <c r="B8" s="3">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="7"/>
+      <c r="B9" s="3">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="7"/>
+      <c r="B10" s="3">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="7"/>
+      <c r="B11" s="3">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="7"/>
+      <c r="B12" s="3">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="7"/>
+      <c r="B13" s="3">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="7"/>
+      <c r="B14" s="3">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="7"/>
+      <c r="B15" s="3">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="7"/>
+      <c r="B16" s="3">
+        <v>15</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A17" s="7"/>
+      <c r="B17" s="3">
+        <v>16</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="7"/>
+      <c r="B18" s="3">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="7"/>
+      <c r="B19" s="3">
+        <v>18</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A20" s="7"/>
+      <c r="B20" s="3">
+        <v>19</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="7"/>
+      <c r="B21" s="3">
+        <v>20</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="7"/>
+      <c r="B22" s="3">
+        <v>21</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A23" s="7"/>
+      <c r="B23" s="3">
+        <v>22</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="7"/>
+      <c r="B24" s="3">
+        <v>23</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="7"/>
+      <c r="B25" s="3">
+        <v>24</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G25" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="7"/>
+      <c r="B26" s="3">
+        <v>25</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G26" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="7"/>
+      <c r="B27" s="3">
+        <v>26</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G27" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="7"/>
+      <c r="B28" s="3">
+        <v>27</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G28" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="7"/>
+      <c r="B29" s="3">
+        <v>28</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A30" s="7"/>
+      <c r="B30" s="3">
+        <v>29</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="7"/>
+      <c r="B31" s="3">
+        <v>30</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G31" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="7"/>
+      <c r="B32" s="3">
+        <v>31</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G32" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="7"/>
+      <c r="B33" s="3">
+        <v>32</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A34" s="7"/>
+      <c r="B34" s="3">
+        <v>33</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G34" s="3">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="7"/>
+      <c r="B35" s="3">
+        <v>34</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G35" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="7"/>
+      <c r="B36" s="3">
+        <v>35</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G36" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="7"/>
+      <c r="B37" s="3">
+        <v>36</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G37" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="7"/>
+      <c r="B38" s="3">
+        <v>37</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G38" s="3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="7"/>
+      <c r="B39" s="3">
+        <v>38</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="7"/>
+      <c r="B40" s="3">
+        <v>39</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="7"/>
+      <c r="B41" s="3">
+        <v>40</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G41" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="7"/>
+      <c r="B42" s="3">
+        <v>41</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G42" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="7"/>
+      <c r="B43" s="3">
+        <v>42</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G43" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="7"/>
+      <c r="B44" s="3">
+        <v>43</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="7"/>
+      <c r="B45" s="3">
+        <v>44</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G45" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="7"/>
+      <c r="B46" s="3">
+        <v>45</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G46" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="7"/>
+      <c r="B47" s="3">
+        <v>46</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G47" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="7"/>
+      <c r="B48" s="3">
+        <v>47</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G48" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="7"/>
+      <c r="B49" s="3">
+        <v>48</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G49" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="7"/>
+      <c r="B50" s="3">
+        <v>49</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G50" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A51" s="7"/>
+      <c r="B51" s="3">
+        <v>50</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="G51" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="7"/>
+      <c r="B52" s="3">
+        <v>51</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="G52" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" s="7"/>
+      <c r="B53" s="3">
+        <v>52</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G53" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="7"/>
+      <c r="B54" s="3">
+        <v>53</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G54" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" s="7"/>
+      <c r="B55" s="3">
+        <v>54</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G55" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" s="7"/>
+      <c r="B56" s="3">
+        <v>55</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="G56" s="3">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A57" s="7"/>
+      <c r="B57" s="3">
+        <v>56</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G57" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="7"/>
+      <c r="B58" s="3">
+        <v>57</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G58" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" s="7"/>
+      <c r="B59" s="3">
+        <v>58</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="G59" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" s="7"/>
+      <c r="B60" s="3">
+        <v>59</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="G60" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" s="7"/>
+      <c r="B61" s="3">
+        <v>60</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G61" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" s="7"/>
+      <c r="B62" s="3">
+        <v>61</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G62" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" s="7"/>
+      <c r="B63" s="3">
+        <v>62</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G63" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A64" s="7"/>
+      <c r="B64" s="3">
+        <v>63</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G64" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" s="7"/>
+      <c r="B65" s="3">
+        <v>64</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G65" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" s="7"/>
+      <c r="B66" s="3">
+        <v>65</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="G66" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" s="7"/>
+      <c r="B67" s="3">
+        <v>66</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G67" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" s="7"/>
+      <c r="B68" s="3">
+        <v>67</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G68" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" s="7"/>
+      <c r="B69" s="3">
+        <v>68</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G69" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" s="7"/>
+      <c r="B70" s="3">
+        <v>69</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G70" s="3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71" s="7"/>
+      <c r="B71" s="3">
+        <v>70</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="G71" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72" s="7"/>
+      <c r="B72" s="3">
+        <v>71</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G72" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73" s="7"/>
+      <c r="B73" s="3">
+        <v>72</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="G73" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74" s="7"/>
+      <c r="B74" s="3">
+        <v>73</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="G74" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A75" s="7"/>
+      <c r="B75" s="3">
+        <v>74</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G75" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76" s="7"/>
+      <c r="B76" s="3">
+        <v>75</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="G76" s="3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A77" s="7"/>
+      <c r="B77" s="3">
+        <v>76</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G77" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78" s="7"/>
+      <c r="B78" s="3">
+        <v>77</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G78" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79" s="7"/>
+      <c r="B79" s="3">
+        <v>78</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G79" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80" s="7"/>
+      <c r="B80" s="3">
+        <v>79</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G80" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81" s="7"/>
+      <c r="B81" s="3">
+        <v>80</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G81" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82" s="7"/>
+      <c r="B82" s="3">
+        <v>81</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G82" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83" s="7"/>
+      <c r="B83" s="3">
+        <v>82</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="G83" s="3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84" s="7"/>
+      <c r="B84" s="3">
+        <v>83</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="G84" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85" s="7"/>
+      <c r="B85" s="3">
+        <v>84</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="G85" s="3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86" s="7"/>
+      <c r="B86" s="3">
+        <v>85</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A87" s="7"/>
+      <c r="B87" s="3">
+        <v>86</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G87" s="3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A88" s="7"/>
+      <c r="B88" s="3">
+        <v>87</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G88" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89" s="7"/>
+      <c r="B89" s="3">
+        <v>88</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A90" s="7"/>
+      <c r="B90" s="3">
+        <v>89</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="G90" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A91" s="7"/>
+      <c r="B91" s="3">
+        <v>90</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="G91" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A92" s="7"/>
+      <c r="B92" s="3">
+        <v>91</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="G92" s="3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A93" s="7"/>
+      <c r="B93" s="3">
+        <v>92</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="G93" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A94" s="7"/>
+      <c r="B94" s="3">
+        <v>93</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="G94" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A95" s="7"/>
+      <c r="B95" s="3">
+        <v>94</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G95" s="3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A96" s="7"/>
+      <c r="B96" s="3">
+        <v>95</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="G96" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A97" s="7"/>
+      <c r="B97" s="3">
+        <v>96</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G97" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A98" s="7"/>
+      <c r="B98" s="3">
+        <v>97</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G98" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A99" s="7"/>
+      <c r="B99" s="3">
+        <v>98</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G99" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A100" s="7"/>
+      <c r="B100" s="3">
+        <v>99</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G100" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A101" s="7"/>
+      <c r="B101" s="3">
+        <v>100</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G101" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A102" s="7"/>
+      <c r="B102" s="3">
+        <v>101</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G102" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A103" s="7"/>
+      <c r="B103" s="3">
+        <v>102</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G103" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A104" s="7"/>
+      <c r="B104" s="3">
+        <v>103</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G104" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A105" s="7"/>
+      <c r="B105" s="3">
+        <v>104</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G105" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A106" s="7"/>
+      <c r="B106" s="3">
+        <v>105</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G106" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A107" s="7"/>
+      <c r="B107" s="3">
+        <v>106</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="G107" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A108" s="7"/>
+      <c r="B108" s="3">
+        <v>107</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="G108" s="3">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A109" s="7"/>
+      <c r="B109" s="3">
+        <v>108</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="G109" s="3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A110" s="7"/>
+      <c r="B110" s="3">
+        <v>109</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="G110" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A111" s="7"/>
+      <c r="B111" s="3">
+        <v>110</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="G111" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A112" s="7"/>
+      <c r="B112" s="3">
+        <v>111</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="G112" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A113" s="7"/>
+      <c r="B113" s="3">
+        <v>112</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="G113" s="3">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A114" s="7"/>
+      <c r="B114" s="3">
+        <v>113</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A115" s="7"/>
+      <c r="B115" s="3">
+        <v>114</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="3">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A116" s="7"/>
+      <c r="B116" s="3">
+        <v>115</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A117" s="7"/>
+      <c r="B117" s="3">
+        <v>116</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A118" s="7"/>
+      <c r="B118" s="3">
+        <v>117</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A119" s="7"/>
+      <c r="B119" s="3">
+        <v>118</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="G119" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A120" s="7"/>
+      <c r="B120" s="3">
+        <v>119</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="G120" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A121" s="7"/>
+      <c r="B121" s="3">
+        <v>120</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A122" s="7"/>
+      <c r="B122" s="3">
+        <v>121</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="G122" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A123" s="7"/>
+      <c r="B123" s="3">
+        <v>122</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A124" s="7"/>
+      <c r="B124" s="3">
+        <v>123</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="G124" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A125" s="7"/>
+      <c r="B125" s="3">
+        <v>124</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A126" s="7"/>
+      <c r="B126" s="3">
+        <v>125</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A127" s="7"/>
+      <c r="B127" s="3">
+        <v>126</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="G127" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A128" s="7"/>
+      <c r="B128" s="3">
+        <v>127</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="G128" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A129" s="7"/>
+      <c r="B129" s="3">
+        <v>128</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="G129" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A130" s="7"/>
+      <c r="B130" s="3">
+        <v>129</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="G130" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A131" s="7"/>
+      <c r="B131" s="3">
+        <v>130</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G131" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A132" s="7"/>
+      <c r="B132" s="3">
+        <v>131</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="G132" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A133" s="7"/>
+      <c r="B133" s="3">
+        <v>132</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="G133" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A134" s="7"/>
+      <c r="B134" s="3">
+        <v>133</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G134" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A135" s="7"/>
+      <c r="B135" s="3">
+        <v>134</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="G135" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A136" s="7"/>
+      <c r="B136" s="3">
+        <v>135</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G136" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A137" s="7"/>
+      <c r="B137" s="3">
+        <v>136</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="G137" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A138" s="7"/>
+      <c r="B138" s="3">
+        <v>137</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="G138" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A139" s="7"/>
+      <c r="B139" s="3">
+        <v>138</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="G139" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A140" s="7"/>
+      <c r="B140" s="3">
+        <v>139</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="G140" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A141" s="7"/>
+      <c r="B141" s="3">
+        <v>140</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G141" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A142" s="7"/>
+      <c r="B142" s="3">
+        <v>141</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="G142" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A143" s="7"/>
+      <c r="B143" s="3">
+        <v>142</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="G143" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A144" s="7"/>
+      <c r="B144" s="3">
+        <v>143</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="G144" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A145" s="7"/>
+      <c r="B145" s="3">
+        <v>144</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G145" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A146" s="7"/>
+      <c r="B146" s="3">
+        <v>145</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="G146" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A147" s="7"/>
+      <c r="B147" s="3">
+        <v>146</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G147" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A148" s="7"/>
+      <c r="B148" s="3">
+        <v>147</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="G148" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A149" s="7"/>
+      <c r="B149" s="3">
+        <v>148</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="G149" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A150" s="7"/>
+      <c r="B150" s="3">
+        <v>149</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G150" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A151" s="7"/>
+      <c r="B151" s="3">
+        <v>150</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="G151" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A152" s="7"/>
+      <c r="B152" s="3">
+        <v>151</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="G152" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A153" s="7"/>
+      <c r="B153" s="3">
+        <v>152</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="G153" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A154" s="7"/>
+      <c r="B154" s="3">
+        <v>153</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G154" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A155" s="7"/>
+      <c r="B155" s="3">
+        <v>154</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="G155" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A156" s="7"/>
+      <c r="B156" s="3">
+        <v>155</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="G156" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A157" s="7"/>
+      <c r="B157" s="3">
+        <v>156</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="G157" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A158" s="7"/>
+      <c r="B158" s="3">
+        <v>157</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="G158" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A159" s="7"/>
+      <c r="B159" s="3">
+        <v>158</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="G159" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A160" s="7"/>
+      <c r="B160" s="3">
+        <v>159</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G160" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A161" s="7"/>
+      <c r="B161" s="3">
+        <v>160</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="F161" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G161" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A162" s="7"/>
+      <c r="B162" s="3">
+        <v>161</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="F162" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="G162" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A163" s="7"/>
+      <c r="B163" s="3">
+        <v>162</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="G163" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A164" s="7"/>
+      <c r="B164" s="3">
+        <v>163</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G164" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A165" s="7"/>
+      <c r="B165" s="3">
+        <v>164</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G165" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A166" s="7"/>
+      <c r="B166" s="3">
+        <v>165</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G166" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A167" s="7"/>
+      <c r="B167" s="3">
+        <v>166</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G167" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A168" s="7"/>
+      <c r="B168" s="3">
+        <v>167</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G168" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A169" s="7"/>
+      <c r="B169" s="3">
+        <v>168</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="G169" s="3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A170" s="7"/>
+      <c r="B170" s="3">
+        <v>169</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="G170" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A171" s="7"/>
+      <c r="B171" s="3">
+        <v>170</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="G171" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A172" s="7"/>
+      <c r="B172" s="3">
+        <v>171</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="G172" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A173" s="7"/>
+      <c r="B173" s="3">
+        <v>172</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="F173" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G173" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A174" s="7"/>
+      <c r="B174" s="3">
+        <v>173</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A175" s="7"/>
+      <c r="B175" s="3">
+        <v>174</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A176" s="7"/>
+      <c r="B176" s="3">
+        <v>175</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A177" s="7"/>
+      <c r="B177" s="3">
+        <v>176</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A178" s="7"/>
+      <c r="B178" s="3">
+        <v>177</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A179" s="7"/>
+      <c r="B179" s="3">
+        <v>178</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="F179" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A180" s="7"/>
+      <c r="B180" s="3">
+        <v>179</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A181" s="7"/>
+      <c r="B181" s="3">
+        <v>180</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A182" s="7"/>
+      <c r="B182" s="3">
+        <v>181</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="F182" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="G182" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A183" s="7"/>
+      <c r="B183" s="3">
+        <v>182</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="F183" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="G183" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A184" s="7"/>
+      <c r="B184" s="3">
+        <v>183</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="F184" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G184" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A185" s="7"/>
+      <c r="B185" s="3">
+        <v>184</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="F185" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="G185" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A186" s="7"/>
+      <c r="B186" s="3">
+        <v>185</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="F186" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="G186" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A187" s="7"/>
+      <c r="B187" s="3">
+        <v>186</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="F187" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="G187" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A188" s="7"/>
+      <c r="B188" s="3">
+        <v>187</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="F188" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="G188" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A189" s="7"/>
+      <c r="B189" s="3">
+        <v>188</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="F189" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="G189" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A190" s="7"/>
+      <c r="B190" s="3">
+        <v>189</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="F190" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="G190" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A191" s="7"/>
+      <c r="B191" s="3">
+        <v>190</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="F191" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="G191" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A192" s="7"/>
+      <c r="B192" s="3">
+        <v>191</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="F192" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G192" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A193" s="7"/>
+      <c r="B193" s="3">
+        <v>192</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="F193" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="G193" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A194" s="7"/>
+      <c r="B194" s="3">
+        <v>193</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="F194" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="G194" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A195" s="7"/>
+      <c r="B195" s="3">
+        <v>194</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="F195" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="G195" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A196" s="7"/>
+      <c r="B196" s="3">
+        <v>195</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="F196" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G196" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A197" s="7"/>
+      <c r="B197" s="3">
+        <v>196</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="F197" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="G197" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A198" s="7"/>
+      <c r="B198" s="3">
+        <v>197</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="F198" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G198" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A199" s="7"/>
+      <c r="B199" s="3">
+        <v>198</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="E199" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="F199" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="G199" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A200" s="7"/>
+      <c r="B200" s="3">
+        <v>199</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="F200" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="G200" s="3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A201" s="7"/>
+      <c r="B201" s="3">
+        <v>200</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="E201" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="F201" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G201" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A202" s="7"/>
+      <c r="B202" s="3">
+        <v>201</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="E202" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="F202" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G202" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A203" s="7"/>
+      <c r="B203" s="3">
+        <v>202</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="E203" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="F203" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G203" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A204" s="7"/>
+      <c r="B204" s="3">
+        <v>203</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="E204" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="F204" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="G204" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A205" s="7"/>
+      <c r="B205" s="3">
+        <v>204</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="F205" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="G205" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A206" s="7"/>
+      <c r="B206" s="3">
+        <v>205</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="E206" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="F206" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G206" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A207" s="7"/>
+      <c r="B207" s="3">
+        <v>206</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="E207" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="F207" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G207" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A208" s="7"/>
+      <c r="B208" s="3">
+        <v>207</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="E208" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="F208" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G208" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A209" s="7"/>
+      <c r="B209" s="3">
+        <v>208</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="E209" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="F209" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G209" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A210" s="7"/>
+      <c r="B210" s="3">
+        <v>209</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="E210" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F210" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G210" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A211" s="7"/>
+      <c r="B211" s="3">
+        <v>210</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="E211" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="F211" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G211" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A212" s="7"/>
+      <c r="B212" s="3">
+        <v>211</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="E212" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="F212" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G212" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A213" s="7"/>
+      <c r="B213" s="3">
+        <v>212</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="E213" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="F213" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G213" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A214" s="7"/>
+      <c r="B214" s="3">
+        <v>213</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="D214" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="E214" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="F214" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G214" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A215" s="7"/>
+      <c r="B215" s="3">
+        <v>214</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="E215" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="F215" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G215" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A216" s="7"/>
+      <c r="B216" s="3">
+        <v>215</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="E216" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="F216" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G216" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A217" s="7"/>
+      <c r="B217" s="3">
+        <v>216</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="D217" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="E217" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="F217" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="G217" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A218" s="7"/>
+      <c r="B218" s="3">
+        <v>217</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="E218" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="F218" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="G218" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A219" s="7"/>
+      <c r="B219" s="3">
+        <v>218</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="D219" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="E219" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="F219" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="G219" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A220" s="7"/>
+      <c r="B220" s="3">
+        <v>219</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="D220" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="E220" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="F220" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="G220" s="3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A221" s="7"/>
+      <c r="B221" s="3">
+        <v>220</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="D221" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="E221" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="F221" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G221" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A222" s="7"/>
+      <c r="B222" s="3">
+        <v>221</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="D222" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="E222" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="F222" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G222" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A223" s="7"/>
+      <c r="B223" s="3">
+        <v>222</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="D223" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="E223" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="F223" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="G223" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A224" s="7"/>
+      <c r="B224" s="3">
+        <v>223</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="D224" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="E224" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="F224" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G224" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A225" s="7"/>
+      <c r="B225" s="3">
+        <v>224</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="D225" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="E225" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="F225" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G225" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A226" s="7"/>
+      <c r="B226" s="3">
+        <v>225</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="D226" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="E226" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="F226" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="G226" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A227" s="7"/>
+      <c r="B227" s="3">
+        <v>226</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="D227" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="E227" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="F227" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="G227" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A228" s="7"/>
+      <c r="B228" s="3">
+        <v>227</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="D228" s="3" t="s">
+        <v>867</v>
+      </c>
+      <c r="E228" s="3" t="s">
+        <v>868</v>
+      </c>
+      <c r="F228" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G228" s="3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A229" s="7"/>
+      <c r="B229" s="3">
+        <v>228</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="D229" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="E229" s="3" t="s">
+        <v>871</v>
+      </c>
+      <c r="F229" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G229" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A230" s="7"/>
+      <c r="B230" s="3">
+        <v>229</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="D230" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="E230" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="F230" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G230" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A231" s="7"/>
+      <c r="B231" s="3">
+        <v>230</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="D231" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="E231" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="F231" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="G231" s="3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A232" s="7"/>
+      <c r="B232" s="3">
+        <v>231</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="D232" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="E232" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="F232" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G232" s="3">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A233" s="7"/>
+      <c r="B233" s="3">
+        <v>232</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="D233" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="E233" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="F233" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G233" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A234" s="7"/>
+      <c r="B234" s="3">
+        <v>233</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="D234" s="3" t="s">
+        <v>887</v>
+      </c>
+      <c r="E234" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="F234" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="G234" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A235" s="7"/>
+      <c r="B235" s="3">
+        <v>234</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="D235" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="E235" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="F235" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G235" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A236" s="7"/>
+      <c r="B236" s="3">
+        <v>235</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="D236" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="E236" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="F236" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G236" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A237" s="7"/>
+      <c r="B237" s="3">
+        <v>236</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="D237" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="E237" s="3" t="s">
+        <v>900</v>
+      </c>
+      <c r="F237" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G237" s="3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A238" s="7"/>
+      <c r="B238" s="3">
+        <v>237</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="D238" s="3" t="s">
+        <v>902</v>
+      </c>
+      <c r="E238" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="F238" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G238" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A239" s="7"/>
+      <c r="B239" s="3">
+        <v>238</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>905</v>
+      </c>
+      <c r="D239" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="E239" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="F239" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G239" s="3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A240" s="7"/>
+      <c r="B240" s="3">
+        <v>239</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="D240" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="E240" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="F240" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G240" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A241" s="7"/>
+      <c r="B241" s="3">
+        <v>240</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="D241" s="3" t="s">
+        <v>912</v>
+      </c>
+      <c r="E241" s="3" t="s">
+        <v>913</v>
+      </c>
+      <c r="F241" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G241" s="3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A242" s="7"/>
+      <c r="B242" s="3">
+        <v>241</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>914</v>
+      </c>
+      <c r="D242" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="E242" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="F242" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G242" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A243" s="7"/>
+      <c r="B243" s="3">
+        <v>242</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>917</v>
+      </c>
+      <c r="D243" s="3" t="s">
+        <v>918</v>
+      </c>
+      <c r="E243" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="F243" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G243" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A244" s="7"/>
+      <c r="B244" s="3">
+        <v>243</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="D244" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="E244" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="F244" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="G244" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A245" s="7"/>
+      <c r="B245" s="3">
+        <v>244</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>926</v>
+      </c>
+      <c r="D245" s="3" t="s">
+        <v>927</v>
+      </c>
+      <c r="E245" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="F245" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G245" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A246" s="7"/>
+      <c r="B246" s="3">
+        <v>245</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>930</v>
+      </c>
+      <c r="D246" s="3" t="s">
+        <v>931</v>
+      </c>
+      <c r="E246" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="F246" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G246" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A247" s="7"/>
+      <c r="B247" s="3">
+        <v>246</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="D247" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="E247" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="F247" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G247" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A248" s="7"/>
+      <c r="B248" s="3">
+        <v>247</v>
+      </c>
+      <c r="C248" s="3" t="s">
+        <v>938</v>
+      </c>
+      <c r="D248" s="3" t="s">
+        <v>939</v>
+      </c>
+      <c r="E248" s="3" t="s">
+        <v>940</v>
+      </c>
+      <c r="F248" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="G248" s="3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A249" s="7"/>
+      <c r="B249" s="3">
+        <v>248</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>941</v>
+      </c>
+      <c r="D249" s="3" t="s">
+        <v>942</v>
+      </c>
+      <c r="E249" s="3" t="s">
+        <v>943</v>
+      </c>
+      <c r="F249" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G249" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A250" s="7"/>
+      <c r="B250" s="3">
+        <v>249</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="D250" s="3" t="s">
+        <v>946</v>
+      </c>
+      <c r="E250" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="F250" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G250" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A251" s="7"/>
+      <c r="B251" s="3">
+        <v>250</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="D251" s="3" t="s">
+        <v>950</v>
+      </c>
+      <c r="E251" s="3" t="s">
+        <v>951</v>
+      </c>
+      <c r="F251" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G251" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A252" s="7"/>
+      <c r="B252" s="3">
+        <v>251</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>953</v>
+      </c>
+      <c r="D252" s="3" t="s">
+        <v>954</v>
+      </c>
+      <c r="E252" s="3" t="s">
+        <v>955</v>
+      </c>
+      <c r="F252" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G252" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A253" s="7"/>
+      <c r="B253" s="3">
+        <v>252</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>957</v>
+      </c>
+      <c r="D253" s="3" t="s">
+        <v>958</v>
+      </c>
+      <c r="E253" s="3" t="s">
+        <v>959</v>
+      </c>
+      <c r="F253" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G253" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A254" s="7"/>
+      <c r="B254" s="3">
+        <v>253</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>961</v>
+      </c>
+      <c r="D254" s="3" t="s">
+        <v>962</v>
+      </c>
+      <c r="E254" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="F254" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G254" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A255" s="7"/>
+      <c r="B255" s="3">
+        <v>254</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>965</v>
+      </c>
+      <c r="D255" s="3" t="s">
+        <v>966</v>
+      </c>
+      <c r="E255" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="F255" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G255" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A256" s="7"/>
+      <c r="B256" s="3">
+        <v>255</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>969</v>
+      </c>
+      <c r="D256" s="3" t="s">
+        <v>970</v>
+      </c>
+      <c r="E256" s="3" t="s">
+        <v>971</v>
+      </c>
+      <c r="F256" s="3" t="s">
+        <v>972</v>
+      </c>
+      <c r="G256" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A257" s="7"/>
+      <c r="B257" s="3">
+        <v>256</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>974</v>
+      </c>
+      <c r="D257" s="3" t="s">
+        <v>975</v>
+      </c>
+      <c r="E257" s="3" t="s">
+        <v>976</v>
+      </c>
+      <c r="F257" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G257" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A258" s="7"/>
+      <c r="B258" s="3">
+        <v>257</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>978</v>
+      </c>
+      <c r="D258" s="3" t="s">
+        <v>979</v>
+      </c>
+      <c r="E258" s="3" t="s">
+        <v>980</v>
+      </c>
+      <c r="F258" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G258" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A259" s="7"/>
+      <c r="B259" s="3">
+        <v>258</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>982</v>
+      </c>
+      <c r="D259" s="3" t="s">
+        <v>983</v>
+      </c>
+      <c r="E259" s="3" t="s">
+        <v>984</v>
+      </c>
+      <c r="F259" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G259" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A260" s="7"/>
+      <c r="B260" s="3">
+        <v>259</v>
+      </c>
+      <c r="C260" s="3" t="s">
+        <v>986</v>
+      </c>
+      <c r="D260" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="E260" s="3" t="s">
+        <v>988</v>
+      </c>
+      <c r="F260" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G260" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A261" s="7"/>
+      <c r="B261" s="3">
+        <v>260</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="D261" s="3" t="s">
+        <v>991</v>
+      </c>
+      <c r="E261" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="F261" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G261" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A262" s="7"/>
+      <c r="B262" s="3">
+        <v>261</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>994</v>
+      </c>
+      <c r="D262" s="3" t="s">
+        <v>995</v>
+      </c>
+      <c r="E262" s="3" t="s">
+        <v>996</v>
+      </c>
+      <c r="F262" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G262" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A263" s="7"/>
+      <c r="B263" s="3">
+        <v>262</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>998</v>
+      </c>
+      <c r="D263" s="3" t="s">
+        <v>999</v>
+      </c>
+      <c r="E263" s="3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F263" s="3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G263" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A264" s="7"/>
+      <c r="B264" s="3">
+        <v>263</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D264" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E264" s="3" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F264" s="3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G264" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A265" s="7"/>
+      <c r="B265" s="3">
+        <v>264</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D265" s="3" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E265" s="3" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F265" s="3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G265" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A266" s="7"/>
+      <c r="B266" s="3">
+        <v>265</v>
+      </c>
+      <c r="C266" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D266" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E266" s="3" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F266" s="3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G266" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A267" s="7"/>
+      <c r="B267" s="3">
+        <v>266</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D267" s="3" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E267" s="3" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F267" s="3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G267" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A268" s="7"/>
+      <c r="B268" s="3">
+        <v>267</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D268" s="3" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E268" s="3" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F268" s="3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G268" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A269" s="7"/>
+      <c r="B269" s="3">
+        <v>268</v>
+      </c>
+      <c r="C269" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D269" s="3" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E269" s="3" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F269" s="3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G269" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A270" s="7"/>
+      <c r="B270" s="3">
+        <v>269</v>
+      </c>
+      <c r="C270" s="3" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D270" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E270" s="3" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F270" s="3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G270" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A271" s="7"/>
+      <c r="B271" s="3">
+        <v>270</v>
+      </c>
+      <c r="C271" s="3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D271" s="3" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E271" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F271" s="3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G271" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A272" s="7"/>
+      <c r="B272" s="3">
+        <v>271</v>
+      </c>
+      <c r="C272" s="3" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D272" s="3" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E272" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F272" s="3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G272" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A273" s="7"/>
+      <c r="B273" s="3">
+        <v>272</v>
+      </c>
+      <c r="C273" s="3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D273" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E273" s="3" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F273" s="3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G273" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A274" s="7"/>
+      <c r="B274" s="3">
+        <v>273</v>
+      </c>
+      <c r="C274" s="3" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D274" s="3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E274" s="3" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F274" s="3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G274" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A275" s="7"/>
+      <c r="B275" s="3">
+        <v>274</v>
+      </c>
+      <c r="C275" s="3" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D275" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E275" s="3" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F275" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G275" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A276" s="7"/>
+      <c r="B276" s="3">
+        <v>275</v>
+      </c>
+      <c r="C276" s="3" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D276" s="3" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E276" s="3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F276" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="G276" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A277" s="7"/>
+      <c r="B277" s="3">
+        <v>276</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D277" s="3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E277" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F277" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="G277" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A278" s="7"/>
+      <c r="B278" s="3">
+        <v>277</v>
+      </c>
+      <c r="C278" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D278" s="3" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E278" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F278" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G278" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A279" s="7"/>
+      <c r="B279" s="3">
+        <v>278</v>
+      </c>
+      <c r="C279" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D279" s="3" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E279" s="3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F279" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G279" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A280" s="7"/>
+      <c r="B280" s="3">
+        <v>279</v>
+      </c>
+      <c r="C280" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D280" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E280" s="3" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F280" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G280" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A281" s="7"/>
+      <c r="B281" s="3">
+        <v>280</v>
+      </c>
+      <c r="C281" s="3" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D281" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E281" s="3" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F281" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G281" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A282" s="7"/>
+      <c r="B282" s="3">
+        <v>281</v>
+      </c>
+      <c r="C282" s="3" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D282" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E282" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F282" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G282" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A283" s="7"/>
+      <c r="B283" s="3">
+        <v>282</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D283" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E283" s="3" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F283" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G283" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A284" s="7"/>
+      <c r="B284" s="3">
+        <v>283</v>
+      </c>
+      <c r="C284" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D284" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E284" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F284" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G284" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A285" s="7"/>
+      <c r="B285" s="3">
+        <v>284</v>
+      </c>
+      <c r="C285" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D285" s="3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E285" s="3" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F285" s="3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G285" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A286" s="7"/>
+      <c r="B286" s="3">
+        <v>285</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D286" s="3" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E286" s="3" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F286" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="G286" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A287" s="7"/>
+      <c r="B287" s="3">
+        <v>286</v>
+      </c>
+      <c r="C287" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D287" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E287" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F287" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G287" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A288" s="7"/>
+      <c r="B288" s="3">
+        <v>287</v>
+      </c>
+      <c r="C288" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D288" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E288" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F288" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G288" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A289" s="7"/>
+      <c r="B289" s="3">
+        <v>288</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D289" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E289" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F289" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G289" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A290" s="7"/>
+      <c r="B290" s="3">
+        <v>289</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D290" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E290" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F290" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G290" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A291" s="7"/>
+      <c r="B291" s="3">
+        <v>290</v>
+      </c>
+      <c r="C291" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D291" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E291" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F291" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G291" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A292" s="7"/>
+      <c r="B292" s="3">
+        <v>291</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D292" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E292" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F292" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G292" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A293" s="7"/>
+      <c r="B293" s="3">
+        <v>292</v>
+      </c>
+      <c r="C293" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D293" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E293" s="3" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F293" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G293" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A294" s="7"/>
+      <c r="B294" s="3">
+        <v>293</v>
+      </c>
+      <c r="C294" s="3" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D294" s="3" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E294" s="3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F294" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G294" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A295" s="7"/>
+      <c r="B295" s="3">
+        <v>294</v>
+      </c>
+      <c r="C295" s="3" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D295" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E295" s="3" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F295" s="3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G295" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A296" s="7"/>
+      <c r="B296" s="3">
+        <v>295</v>
+      </c>
+      <c r="C296" s="3" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D296" s="3" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E296" s="3" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F296" s="3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G296" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A297" s="7"/>
+      <c r="B297" s="3">
+        <v>296</v>
+      </c>
+      <c r="C297" s="3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D297" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E297" s="3" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F297" s="3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G297" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A298" s="7"/>
+      <c r="B298" s="3">
+        <v>297</v>
+      </c>
+      <c r="C298" s="3" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D298" s="3" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E298" s="3" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F298" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G298" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A299" s="7"/>
+      <c r="B299" s="3">
+        <v>298</v>
+      </c>
+      <c r="C299" s="3" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D299" s="3" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E299" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F299" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G299" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A300" s="7"/>
+      <c r="B300" s="3">
+        <v>299</v>
+      </c>
+      <c r="C300" s="3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D300" s="3" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E300" s="3" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F300" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G300" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A301" s="7"/>
+      <c r="B301" s="3">
+        <v>300</v>
+      </c>
+      <c r="C301" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D301" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E301" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F301" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G301" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A302" s="7"/>
+      <c r="B302" s="3">
+        <v>301</v>
+      </c>
+      <c r="C302" s="3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D302" s="3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E302" s="3" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F302" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G302" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A303" s="7" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B303" s="3">
+        <v>302</v>
+      </c>
+      <c r="C303" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D303" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E303" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F303" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="G303" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A304" s="7"/>
+      <c r="B304" s="3">
+        <v>303</v>
+      </c>
+      <c r="C304" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D304" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E304" s="3" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F304" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G304" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A305" s="7"/>
+      <c r="B305" s="3">
+        <v>304</v>
+      </c>
+      <c r="C305" s="3" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D305" s="3" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E305" s="3" t="s">
+        <v>1146</v>
+      </c>
+      <c r="F305" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="G305" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A306" s="7"/>
+      <c r="B306" s="3">
+        <v>305</v>
+      </c>
+      <c r="C306" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D306" s="3" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E306" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F306" s="3" t="s">
+        <v>1151</v>
+      </c>
+      <c r="G306" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A307" s="7"/>
+      <c r="B307" s="3">
+        <v>306</v>
+      </c>
+      <c r="C307" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D307" s="3" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E307" s="3" t="s">
+        <v>1155</v>
+      </c>
+      <c r="F307" s="3" t="s">
+        <v>1151</v>
+      </c>
+      <c r="G307" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A308" s="7"/>
+      <c r="B308" s="3">
+        <v>307</v>
+      </c>
+      <c r="C308" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D308" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E308" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F308" s="3" t="s">
+        <v>1151</v>
+      </c>
+      <c r="G308" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A309" s="7"/>
+      <c r="B309" s="3">
+        <v>308</v>
+      </c>
+      <c r="C309" s="3" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D309" s="3" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E309" s="3" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F309" s="3" t="s">
+        <v>1151</v>
+      </c>
+      <c r="G309" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A310" s="7"/>
+      <c r="B310" s="3">
+        <v>309</v>
+      </c>
+      <c r="C310" s="3" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D310" s="3" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E310" s="3" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F310" s="3" t="s">
+        <v>1151</v>
+      </c>
+      <c r="G310" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A311" s="7"/>
+      <c r="B311" s="3">
+        <v>310</v>
+      </c>
+      <c r="C311" s="3" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D311" s="3" t="s">
+        <v>1169</v>
+      </c>
+      <c r="E311" s="3" t="s">
+        <v>1170</v>
+      </c>
+      <c r="F311" s="3" t="s">
+        <v>1151</v>
+      </c>
+      <c r="G311" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A312" s="7"/>
+      <c r="B312" s="3">
+        <v>311</v>
+      </c>
+      <c r="C312" s="3" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D312" s="3" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E312" s="3" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F312" s="3" t="s">
+        <v>1151</v>
+      </c>
+      <c r="G312" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A313" s="7"/>
+      <c r="B313" s="3">
+        <v>312</v>
+      </c>
+      <c r="C313" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D313" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E313" s="3" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F313" s="3" t="s">
+        <v>1151</v>
+      </c>
+      <c r="G313" s="3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A314" s="7"/>
+      <c r="B314" s="3">
+        <v>313</v>
+      </c>
+      <c r="C314" s="3" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D314" s="3" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E314" s="3" t="s">
+        <v>1180</v>
+      </c>
+      <c r="F314" s="3" t="s">
+        <v>1151</v>
+      </c>
+      <c r="G314" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A315" s="7"/>
+      <c r="B315" s="3">
+        <v>314</v>
+      </c>
+      <c r="C315" s="3" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D315" s="3" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E315" s="3" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F315" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="G315" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A316" s="7"/>
+      <c r="B316" s="3">
+        <v>315</v>
+      </c>
+      <c r="C316" s="3" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D316" s="3" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E316" s="3" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F316" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="G316" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A317" s="7"/>
+      <c r="B317" s="3">
+        <v>316</v>
+      </c>
+      <c r="C317" s="3" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D317" s="3" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E317" s="3" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F317" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="G317" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A318" s="7"/>
+      <c r="B318" s="3">
+        <v>317</v>
+      </c>
+      <c r="C318" s="3" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D318" s="3" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E318" s="3" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F318" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G318" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A319" s="7"/>
+      <c r="B319" s="3">
+        <v>318</v>
+      </c>
+      <c r="C319" s="3" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D319" s="3" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E319" s="3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F319" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G319" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A320" s="7"/>
+      <c r="B320" s="3">
+        <v>319</v>
+      </c>
+      <c r="C320" s="3" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D320" s="3" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E320" s="3" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F320" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G320" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A321" s="7"/>
+      <c r="B321" s="3">
+        <v>320</v>
+      </c>
+      <c r="C321" s="3" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D321" s="3" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E321" s="3" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F321" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G321" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A322" s="7"/>
+      <c r="B322" s="3">
+        <v>321</v>
+      </c>
+      <c r="C322" s="3" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D322" s="3" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E322" s="3" t="s">
+        <v>1202</v>
+      </c>
+      <c r="F322" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="G322" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A323" s="7"/>
+      <c r="B323" s="3">
+        <v>322</v>
+      </c>
+      <c r="C323" s="3" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D323" s="3" t="s">
+        <v>1204</v>
+      </c>
+      <c r="E323" s="3" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F323" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="G323" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A324" s="7"/>
+      <c r="B324" s="3">
+        <v>323</v>
+      </c>
+      <c r="C324" s="3" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D324" s="3" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E324" s="3" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F324" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="G324" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A325" s="7"/>
+      <c r="B325" s="3">
+        <v>324</v>
+      </c>
+      <c r="C325" s="3" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D325" s="3" t="s">
+        <v>1210</v>
+      </c>
+      <c r="E325" s="3" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F325" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G325" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A326" s="7"/>
+      <c r="B326" s="3">
+        <v>325</v>
+      </c>
+      <c r="C326" s="3" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D326" s="3" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E326" s="3" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F326" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G326" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A327" s="7"/>
+      <c r="B327" s="3">
+        <v>326</v>
+      </c>
+      <c r="C327" s="3" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D327" s="3" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E327" s="3" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F327" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="G327" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A328" s="7"/>
+      <c r="B328" s="3">
+        <v>327</v>
+      </c>
+      <c r="C328" s="3" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D328" s="3" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E328" s="3" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F328" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G328" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A329" s="7"/>
+      <c r="B329" s="3">
+        <v>328</v>
+      </c>
+      <c r="C329" s="3" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D329" s="3" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E329" s="3" t="s">
+        <v>1225</v>
+      </c>
+      <c r="F329" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="G329" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A330" s="7"/>
+      <c r="B330" s="3">
+        <v>329</v>
+      </c>
+      <c r="C330" s="3" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D330" s="3" t="s">
+        <v>1228</v>
+      </c>
+      <c r="E330" s="3" t="s">
+        <v>1229</v>
+      </c>
+      <c r="F330" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G330" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A331" s="7"/>
+      <c r="B331" s="3">
+        <v>330</v>
+      </c>
+      <c r="C331" s="3" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D331" s="3" t="s">
+        <v>1231</v>
+      </c>
+      <c r="E331" s="3" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F331" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G331" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A332" s="7"/>
+      <c r="B332" s="3">
+        <v>331</v>
+      </c>
+      <c r="C332" s="3" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D332" s="3" t="s">
+        <v>1234</v>
+      </c>
+      <c r="E332" s="3" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F332" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="G332" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A333" s="7"/>
+      <c r="B333" s="3">
+        <v>332</v>
+      </c>
+      <c r="C333" s="3" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D333" s="3" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E333" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F333" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G333" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A334" s="7"/>
+      <c r="B334" s="3">
+        <v>333</v>
+      </c>
+      <c r="C334" s="3" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D334" s="3" t="s">
+        <v>1241</v>
+      </c>
+      <c r="E334" s="3" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F334" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G334" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A335" s="7"/>
+      <c r="B335" s="3">
+        <v>334</v>
+      </c>
+      <c r="C335" s="3" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D335" s="3" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E335" s="3" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F335" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G335" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A336" s="7"/>
+      <c r="B336" s="3">
+        <v>335</v>
+      </c>
+      <c r="C336" s="3" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D336" s="3" t="s">
+        <v>1248</v>
+      </c>
+      <c r="E336" s="3" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F336" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G336" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A337" s="7"/>
+      <c r="B337" s="3">
+        <v>336</v>
+      </c>
+      <c r="C337" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D337" s="3" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E337" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="F337" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G337" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A338" s="7"/>
+      <c r="B338" s="3">
+        <v>337</v>
+      </c>
+      <c r="C338" s="3" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D338" s="3" t="s">
+        <v>1254</v>
+      </c>
+      <c r="E338" s="3" t="s">
+        <v>1255</v>
+      </c>
+      <c r="F338" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G338" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A339" s="7"/>
+      <c r="B339" s="3">
+        <v>338</v>
+      </c>
+      <c r="C339" s="3" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D339" s="3" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E339" s="3" t="s">
+        <v>1258</v>
+      </c>
+      <c r="F339" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G339" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A340" s="7"/>
+      <c r="B340" s="3">
+        <v>339</v>
+      </c>
+      <c r="C340" s="3" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D340" s="3" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E340" s="3" t="s">
+        <v>1261</v>
+      </c>
+      <c r="F340" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G340" s="3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A341" s="7"/>
+      <c r="B341" s="3">
+        <v>340</v>
+      </c>
+      <c r="C341" s="3" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D341" s="3" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E341" s="3" t="s">
+        <v>1264</v>
+      </c>
+      <c r="F341" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G341" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A342" s="7"/>
+      <c r="B342" s="3">
+        <v>341</v>
+      </c>
+      <c r="C342" s="3" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D342" s="3" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E342" s="3" t="s">
+        <v>1268</v>
+      </c>
+      <c r="F342" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G342" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A343" s="7"/>
+      <c r="B343" s="3">
+        <v>342</v>
+      </c>
+      <c r="C343" s="3" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D343" s="3" t="s">
+        <v>1271</v>
+      </c>
+      <c r="E343" s="3" t="s">
+        <v>1272</v>
+      </c>
+      <c r="F343" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G343" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A344" s="7"/>
+      <c r="B344" s="3">
+        <v>343</v>
+      </c>
+      <c r="C344" s="3" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D344" s="3" t="s">
+        <v>1275</v>
+      </c>
+      <c r="E344" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F344" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G344" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A345" s="7"/>
+      <c r="B345" s="3">
+        <v>344</v>
+      </c>
+      <c r="C345" s="3" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D345" s="3" t="s">
+        <v>1279</v>
+      </c>
+      <c r="E345" s="3" t="s">
+        <v>1280</v>
+      </c>
+      <c r="F345" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G345" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A346" s="7"/>
+      <c r="B346" s="3">
+        <v>345</v>
+      </c>
+      <c r="C346" s="3" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D346" s="3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="E346" s="3" t="s">
+        <v>1284</v>
+      </c>
+      <c r="F346" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G346" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A347" s="7"/>
+      <c r="B347" s="3">
+        <v>346</v>
+      </c>
+      <c r="C347" s="3" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D347" s="3" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E347" s="3" t="s">
+        <v>1287</v>
+      </c>
+      <c r="F347" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G347" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A348" s="7"/>
+      <c r="B348" s="3">
+        <v>347</v>
+      </c>
+      <c r="C348" s="3" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D348" s="3" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E348" s="3" t="s">
+        <v>1291</v>
+      </c>
+      <c r="F348" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G348" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A349" s="7"/>
+      <c r="B349" s="3">
+        <v>348</v>
+      </c>
+      <c r="C349" s="3" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D349" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="E349" s="3" t="s">
+        <v>1295</v>
+      </c>
+      <c r="F349" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G349" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A350" s="7"/>
+      <c r="B350" s="3">
+        <v>349</v>
+      </c>
+      <c r="C350" s="3" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D350" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="E350" s="3" t="s">
+        <v>1299</v>
+      </c>
+      <c r="F350" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G350" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A351" s="7"/>
+      <c r="B351" s="3">
+        <v>350</v>
+      </c>
+      <c r="C351" s="3" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D351" s="3" t="s">
+        <v>1302</v>
+      </c>
+      <c r="E351" s="3" t="s">
+        <v>1303</v>
+      </c>
+      <c r="F351" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G351" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A352" s="7"/>
+      <c r="B352" s="3">
+        <v>351</v>
+      </c>
+      <c r="C352" s="3" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D352" s="3" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E352" s="3" t="s">
+        <v>1307</v>
+      </c>
+      <c r="F352" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G352" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A353" s="7"/>
+      <c r="B353" s="3">
+        <v>352</v>
+      </c>
+      <c r="C353" s="3" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D353" s="3" t="s">
+        <v>1310</v>
+      </c>
+      <c r="E353" s="3" t="s">
+        <v>1311</v>
+      </c>
+      <c r="F353" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G353" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A354" s="7"/>
+      <c r="B354" s="3">
+        <v>353</v>
+      </c>
+      <c r="C354" s="3" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D354" s="3" t="s">
+        <v>1314</v>
+      </c>
+      <c r="E354" s="3" t="s">
+        <v>1315</v>
+      </c>
+      <c r="F354" s="3" t="s">
+        <v>1316</v>
+      </c>
+      <c r="G354" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A355" s="7"/>
+      <c r="B355" s="3">
+        <v>354</v>
+      </c>
+      <c r="C355" s="3" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D355" s="3" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E355" s="3" t="s">
+        <v>1319</v>
+      </c>
+      <c r="F355" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G355" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A356" s="7"/>
+      <c r="B356" s="3">
+        <v>355</v>
+      </c>
+      <c r="C356" s="3" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D356" s="3" t="s">
+        <v>1322</v>
+      </c>
+      <c r="E356" s="3" t="s">
+        <v>1323</v>
+      </c>
+      <c r="F356" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G356" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A357" s="7"/>
+      <c r="B357" s="3">
+        <v>356</v>
+      </c>
+      <c r="C357" s="3" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D357" s="3" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E357" s="3" t="s">
+        <v>1325</v>
+      </c>
+      <c r="F357" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G357" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A358" s="7"/>
+      <c r="B358" s="3">
+        <v>357</v>
+      </c>
+      <c r="C358" s="3" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D358" s="3" t="s">
+        <v>1328</v>
+      </c>
+      <c r="E358" s="3" t="s">
+        <v>1329</v>
+      </c>
+      <c r="F358" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G358" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A359" s="7"/>
+      <c r="B359" s="3">
+        <v>358</v>
+      </c>
+      <c r="C359" s="3" t="s">
+        <v>1331</v>
+      </c>
+      <c r="D359" s="3" t="s">
+        <v>1332</v>
+      </c>
+      <c r="E359" s="3" t="s">
+        <v>1333</v>
+      </c>
+      <c r="F359" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G359" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A360" s="7"/>
+      <c r="B360" s="3">
+        <v>359</v>
+      </c>
+      <c r="C360" s="3" t="s">
+        <v>1335</v>
+      </c>
+      <c r="D360" s="3" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E360" s="3" t="s">
+        <v>1337</v>
+      </c>
+      <c r="F360" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="G360" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A361" s="7"/>
+      <c r="B361" s="3">
+        <v>360</v>
+      </c>
+      <c r="C361" s="3" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D361" s="3" t="s">
+        <v>1339</v>
+      </c>
+      <c r="E361" s="3" t="s">
+        <v>1340</v>
+      </c>
+      <c r="F361" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G361" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A362" s="7"/>
+      <c r="B362" s="3">
+        <v>361</v>
+      </c>
+      <c r="C362" s="3" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D362" s="3" t="s">
+        <v>1341</v>
+      </c>
+      <c r="E362" s="3" t="s">
+        <v>1342</v>
+      </c>
+      <c r="F362" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G362" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A363" s="7"/>
+      <c r="B363" s="3">
+        <v>362</v>
+      </c>
+      <c r="C363" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D363" s="3" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E363" s="3" t="s">
+        <v>1346</v>
+      </c>
+      <c r="F363" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G363" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A364" s="7"/>
+      <c r="B364" s="3">
+        <v>363</v>
+      </c>
+      <c r="C364" s="3" t="s">
+        <v>1348</v>
+      </c>
+      <c r="D364" s="3" t="s">
+        <v>1348</v>
+      </c>
+      <c r="E364" s="3" t="s">
+        <v>1349</v>
+      </c>
+      <c r="F364" s="3" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G364" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A365" s="7"/>
+      <c r="B365" s="3">
+        <v>364</v>
+      </c>
+      <c r="C365" s="3" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D365" s="3" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E365" s="3" t="s">
+        <v>1354</v>
+      </c>
+      <c r="F365" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G365" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A366" s="7"/>
+      <c r="B366" s="3">
+        <v>365</v>
+      </c>
+      <c r="C366" s="3" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D366" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="E366" s="3" t="s">
+        <v>1358</v>
+      </c>
+      <c r="F366" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G366" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A367" s="7"/>
+      <c r="B367" s="3">
+        <v>366</v>
+      </c>
+      <c r="C367" s="3" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D367" s="3" t="s">
+        <v>1361</v>
+      </c>
+      <c r="E367" s="3" t="s">
+        <v>1362</v>
+      </c>
+      <c r="F367" s="3" t="s">
+        <v>1363</v>
+      </c>
+      <c r="G367" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A368" s="7"/>
+      <c r="B368" s="3">
+        <v>367</v>
+      </c>
+      <c r="C368" s="3" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D368" s="3" t="s">
+        <v>1365</v>
+      </c>
+      <c r="E368" s="3" t="s">
+        <v>1366</v>
+      </c>
+      <c r="F368" s="3" t="s">
+        <v>1363</v>
+      </c>
+      <c r="G368" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A369" s="7"/>
+      <c r="B369" s="3">
+        <v>368</v>
+      </c>
+      <c r="C369" s="3" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D369" s="3" t="s">
+        <v>1369</v>
+      </c>
+      <c r="E369" s="3" t="s">
+        <v>1370</v>
+      </c>
+      <c r="F369" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G369" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A370" s="7"/>
+      <c r="B370" s="3">
+        <v>369</v>
+      </c>
+      <c r="C370" s="3" t="s">
+        <v>1372</v>
+      </c>
+      <c r="D370" s="3" t="s">
+        <v>1373</v>
+      </c>
+      <c r="E370" s="3" t="s">
+        <v>1374</v>
+      </c>
+      <c r="F370" s="3" t="s">
+        <v>972</v>
+      </c>
+      <c r="G370" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A371" s="7"/>
+      <c r="B371" s="3">
+        <v>370</v>
+      </c>
+      <c r="C371" s="3" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D371" s="3" t="s">
+        <v>1376</v>
+      </c>
+      <c r="E371" s="3" t="s">
+        <v>1377</v>
+      </c>
+      <c r="F371" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G371" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A372" s="7"/>
+      <c r="B372" s="3">
+        <v>371</v>
+      </c>
+      <c r="C372" s="3" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D372" s="3" t="s">
+        <v>1380</v>
+      </c>
+      <c r="E372" s="3" t="s">
+        <v>1381</v>
+      </c>
+      <c r="F372" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G372" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A373" s="7"/>
+      <c r="B373" s="3">
+        <v>372</v>
+      </c>
+      <c r="C373" s="3" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D373" s="3" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E373" s="3" t="s">
+        <v>1385</v>
+      </c>
+      <c r="F373" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G373" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A374" s="7"/>
+      <c r="B374" s="3">
+        <v>373</v>
+      </c>
+      <c r="C374" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D374" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="E374" s="3" t="s">
+        <v>1389</v>
+      </c>
+      <c r="F374" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="G374" s="3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A375" s="7"/>
+      <c r="B375" s="3">
+        <v>374</v>
+      </c>
+      <c r="C375" s="3" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D375" s="3" t="s">
+        <v>1391</v>
+      </c>
+      <c r="E375" s="3" t="s">
+        <v>1392</v>
+      </c>
+      <c r="F375" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G375" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A376" s="7"/>
+      <c r="B376" s="3">
+        <v>375</v>
+      </c>
+      <c r="C376" s="3" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D376" s="3" t="s">
+        <v>1395</v>
+      </c>
+      <c r="E376" s="3" t="s">
+        <v>1396</v>
+      </c>
+      <c r="F376" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G376" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A377" s="7"/>
+      <c r="B377" s="3">
+        <v>376</v>
+      </c>
+      <c r="C377" s="3" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D377" s="3" t="s">
+        <v>1399</v>
+      </c>
+      <c r="E377" s="3" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F377" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G377" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A378" s="7"/>
+      <c r="B378" s="3">
+        <v>377</v>
+      </c>
+      <c r="C378" s="3" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D378" s="3" t="s">
+        <v>1402</v>
+      </c>
+      <c r="E378" s="3" t="s">
+        <v>1403</v>
+      </c>
+      <c r="F378" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G378" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A379" s="7"/>
+      <c r="B379" s="3">
+        <v>378</v>
+      </c>
+      <c r="C379" s="3" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D379" s="3" t="s">
+        <v>1405</v>
+      </c>
+      <c r="E379" s="3" t="s">
+        <v>1406</v>
+      </c>
+      <c r="F379" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G379" s="3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A380" s="7"/>
+      <c r="B380" s="3">
+        <v>379</v>
+      </c>
+      <c r="C380" s="3" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D380" s="3" t="s">
+        <v>1407</v>
+      </c>
+      <c r="E380" s="3" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F380" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G380" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A381" s="7"/>
+      <c r="B381" s="3">
+        <v>380</v>
+      </c>
+      <c r="C381" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D381" s="3" t="s">
+        <v>1411</v>
+      </c>
+      <c r="E381" s="3" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F381" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G381" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A382" s="7"/>
+      <c r="B382" s="3">
+        <v>381</v>
+      </c>
+      <c r="C382" s="3" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D382" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E382" s="3" t="s">
+        <v>1416</v>
+      </c>
+      <c r="F382" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G382" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A383" s="7"/>
+      <c r="B383" s="3">
+        <v>382</v>
+      </c>
+      <c r="C383" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D383" s="3" t="s">
+        <v>1419</v>
+      </c>
+      <c r="E383" s="3" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F383" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G383" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A384" s="7"/>
+      <c r="B384" s="3">
+        <v>383</v>
+      </c>
+      <c r="C384" s="3" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D384" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="E384" s="3" t="s">
+        <v>1424</v>
+      </c>
+      <c r="F384" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G384" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A385" s="7"/>
+      <c r="B385" s="3">
+        <v>384</v>
+      </c>
+      <c r="C385" s="3" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D385" s="3" t="s">
+        <v>1426</v>
+      </c>
+      <c r="E385" s="3" t="s">
+        <v>1427</v>
+      </c>
+      <c r="F385" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G385" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A386" s="7"/>
+      <c r="B386" s="3">
+        <v>385</v>
+      </c>
+      <c r="C386" s="3" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D386" s="3" t="s">
+        <v>1430</v>
+      </c>
+      <c r="E386" s="3" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F386" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G386" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A387" s="7"/>
+      <c r="B387" s="3">
+        <v>386</v>
+      </c>
+      <c r="C387" s="3" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D387" s="3" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E387" s="3" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F387" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G387" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A388" s="7"/>
+      <c r="B388" s="3">
+        <v>387</v>
+      </c>
+      <c r="C388" s="3" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D388" s="3" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E388" s="3" t="s">
+        <v>1437</v>
+      </c>
+      <c r="F388" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G388" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A389" s="7"/>
+      <c r="B389" s="3">
+        <v>388</v>
+      </c>
+      <c r="C389" s="3" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D389" s="3" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E389" s="3" t="s">
+        <v>1441</v>
+      </c>
+      <c r="F389" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="G389" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A390" s="7"/>
+      <c r="B390" s="3">
+        <v>389</v>
+      </c>
+      <c r="C390" s="3" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D390" s="3" t="s">
+        <v>1443</v>
+      </c>
+      <c r="E390" s="3" t="s">
+        <v>1444</v>
+      </c>
+      <c r="F390" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="G390" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A391" s="7"/>
+      <c r="B391" s="3">
+        <v>390</v>
+      </c>
+      <c r="C391" s="3" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D391" s="3" t="s">
+        <v>1445</v>
+      </c>
+      <c r="E391" s="3" t="s">
+        <v>1446</v>
+      </c>
+      <c r="F391" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G391" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A392" s="7"/>
+      <c r="B392" s="3">
+        <v>391</v>
+      </c>
+      <c r="C392" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D392" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="E392" s="3" t="s">
+        <v>1449</v>
+      </c>
+      <c r="F392" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G392" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A393" s="7"/>
+      <c r="B393" s="3">
+        <v>392</v>
+      </c>
+      <c r="C393" s="3" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D393" s="3" t="s">
+        <v>1452</v>
+      </c>
+      <c r="E393" s="3" t="s">
+        <v>1453</v>
+      </c>
+      <c r="F393" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G393" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A394" s="7"/>
+      <c r="B394" s="3">
+        <v>393</v>
+      </c>
+      <c r="C394" s="3" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D394" s="3" t="s">
+        <v>1456</v>
+      </c>
+      <c r="E394" s="3" t="s">
+        <v>1457</v>
+      </c>
+      <c r="F394" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G394" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A395" s="7"/>
+      <c r="B395" s="3">
+        <v>394</v>
+      </c>
+      <c r="C395" s="3" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D395" s="3" t="s">
+        <v>1460</v>
+      </c>
+      <c r="E395" s="3" t="s">
+        <v>1461</v>
+      </c>
+      <c r="F395" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G395" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A396" s="7"/>
+      <c r="B396" s="3">
+        <v>395</v>
+      </c>
+      <c r="C396" s="3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D396" s="3" t="s">
+        <v>1464</v>
+      </c>
+      <c r="E396" s="3" t="s">
+        <v>1465</v>
+      </c>
+      <c r="F396" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G396" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A397" s="7"/>
+      <c r="B397" s="3">
+        <v>396</v>
+      </c>
+      <c r="C397" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="D397" s="3" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E397" s="3" t="s">
+        <v>1469</v>
+      </c>
+      <c r="F397" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G397" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A398" s="7"/>
+      <c r="B398" s="3">
+        <v>397</v>
+      </c>
+      <c r="C398" s="3" t="s">
+        <v>1471</v>
+      </c>
+      <c r="D398" s="3" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E398" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="F398" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="G398" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A399" s="7"/>
+      <c r="B399" s="3">
+        <v>398</v>
+      </c>
+      <c r="C399" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D399" s="3" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E399" s="3" t="s">
+        <v>1477</v>
+      </c>
+      <c r="F399" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G399" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A400" s="7"/>
+      <c r="B400" s="3">
+        <v>399</v>
+      </c>
+      <c r="C400" s="3" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D400" s="3" t="s">
+        <v>1480</v>
+      </c>
+      <c r="E400" s="3" t="s">
+        <v>1481</v>
+      </c>
+      <c r="F400" s="3" t="s">
+        <v>1482</v>
+      </c>
+      <c r="G400" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A401" s="7"/>
+      <c r="B401" s="3">
+        <v>400</v>
+      </c>
+      <c r="C401" s="3" t="s">
+        <v>1484</v>
+      </c>
+      <c r="D401" s="3" t="s">
+        <v>1485</v>
+      </c>
+      <c r="E401" s="3" t="s">
+        <v>1486</v>
+      </c>
+      <c r="F401" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G401" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A402" s="7"/>
+      <c r="B402" s="3">
+        <v>401</v>
+      </c>
+      <c r="C402" s="3" t="s">
+        <v>1488</v>
+      </c>
+      <c r="D402" s="3" t="s">
+        <v>1489</v>
+      </c>
+      <c r="E402" s="3" t="s">
+        <v>1490</v>
+      </c>
+      <c r="F402" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G402" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A403" s="7"/>
+      <c r="B403" s="3">
+        <v>402</v>
+      </c>
+      <c r="C403" s="3" t="s">
+        <v>1492</v>
+      </c>
+      <c r="D403" s="3" t="s">
+        <v>1493</v>
+      </c>
+      <c r="E403" s="3" t="s">
+        <v>1494</v>
+      </c>
+      <c r="F403" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G403" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A404" s="7"/>
+      <c r="B404" s="3">
+        <v>403</v>
+      </c>
+      <c r="C404" s="3" t="s">
+        <v>1496</v>
+      </c>
+      <c r="D404" s="3" t="s">
+        <v>1497</v>
+      </c>
+      <c r="E404" s="3" t="s">
+        <v>1498</v>
+      </c>
+      <c r="F404" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G404" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A405" s="7"/>
+      <c r="B405" s="3">
+        <v>404</v>
+      </c>
+      <c r="C405" s="3" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D405" s="3" t="s">
+        <v>1501</v>
+      </c>
+      <c r="E405" s="3" t="s">
+        <v>1502</v>
+      </c>
+      <c r="F405" s="3" t="s">
+        <v>1503</v>
+      </c>
+      <c r="G405" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A406" s="7"/>
+      <c r="B406" s="3">
+        <v>405</v>
+      </c>
+      <c r="C406" s="3" t="s">
+        <v>1504</v>
+      </c>
+      <c r="D406" s="3" t="s">
+        <v>1505</v>
+      </c>
+      <c r="E406" s="3" t="s">
+        <v>1506</v>
+      </c>
+      <c r="F406" s="3" t="s">
+        <v>1503</v>
+      </c>
+      <c r="G406" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A407" s="7"/>
+      <c r="B407" s="3">
+        <v>406</v>
+      </c>
+      <c r="C407" s="3" t="s">
+        <v>1507</v>
+      </c>
+      <c r="D407" s="3" t="s">
+        <v>1507</v>
+      </c>
+      <c r="E407" s="3" t="s">
+        <v>1508</v>
+      </c>
+      <c r="F407" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G407" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A408" s="7"/>
+      <c r="B408" s="3">
+        <v>407</v>
+      </c>
+      <c r="C408" s="3" t="s">
+        <v>1510</v>
+      </c>
+      <c r="D408" s="3" t="s">
+        <v>1511</v>
+      </c>
+      <c r="E408" s="3" t="s">
+        <v>1512</v>
+      </c>
+      <c r="F408" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G408" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A409" s="7"/>
+      <c r="B409" s="3">
+        <v>408</v>
+      </c>
+      <c r="C409" s="3" t="s">
+        <v>1514</v>
+      </c>
+      <c r="D409" s="3" t="s">
+        <v>1515</v>
+      </c>
+      <c r="E409" s="3" t="s">
+        <v>1516</v>
+      </c>
+      <c r="F409" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G409" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A410" s="7"/>
+      <c r="B410" s="3">
+        <v>409</v>
+      </c>
+      <c r="C410" s="3" t="s">
+        <v>1518</v>
+      </c>
+      <c r="D410" s="3" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E410" s="3" t="s">
+        <v>1520</v>
+      </c>
+      <c r="F410" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G410" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A411" s="7"/>
+      <c r="B411" s="3">
+        <v>410</v>
+      </c>
+      <c r="C411" s="3" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D411" s="3" t="s">
+        <v>1523</v>
+      </c>
+      <c r="E411" s="3" t="s">
+        <v>1524</v>
+      </c>
+      <c r="F411" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G411" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A412" s="7"/>
+      <c r="B412" s="3">
+        <v>411</v>
+      </c>
+      <c r="C412" s="3" t="s">
+        <v>1526</v>
+      </c>
+      <c r="D412" s="3" t="s">
+        <v>1527</v>
+      </c>
+      <c r="E412" s="3" t="s">
+        <v>1528</v>
+      </c>
+      <c r="F412" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G412" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A413" s="7"/>
+      <c r="B413" s="3">
+        <v>412</v>
+      </c>
+      <c r="C413" s="3" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D413" s="3" t="s">
+        <v>1531</v>
+      </c>
+      <c r="E413" s="3" t="s">
+        <v>1532</v>
+      </c>
+      <c r="F413" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G413" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A414" s="7"/>
+      <c r="B414" s="3">
+        <v>413</v>
+      </c>
+      <c r="C414" s="3" t="s">
+        <v>1534</v>
+      </c>
+      <c r="D414" s="3" t="s">
+        <v>1535</v>
+      </c>
+      <c r="E414" s="3" t="s">
+        <v>1536</v>
+      </c>
+      <c r="F414" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G414" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A415" s="7"/>
+      <c r="B415" s="3"/>
+      <c r="C415" s="3" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D415" s="3" t="s">
+        <v>1540</v>
+      </c>
+      <c r="E415" s="3" t="s">
+        <v>1541</v>
+      </c>
+      <c r="F415" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G415" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A416" s="7"/>
+      <c r="B416" s="3"/>
+      <c r="C416" s="3" t="s">
+        <v>1544</v>
+      </c>
+      <c r="D416" s="3" t="s">
+        <v>1545</v>
+      </c>
+      <c r="E416" s="3" t="s">
+        <v>1546</v>
+      </c>
+      <c r="F416" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G416" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A417" s="7"/>
+      <c r="B417" s="3"/>
+      <c r="C417" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D417" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="E417" s="3" t="s">
+        <v>1551</v>
+      </c>
+      <c r="F417" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G417" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A418" s="7"/>
+      <c r="B418" s="3"/>
+      <c r="C418" s="3" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D418" s="3" t="s">
+        <v>1555</v>
+      </c>
+      <c r="E418" s="3" t="s">
+        <v>1556</v>
+      </c>
+      <c r="F418" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G418" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A419" s="7"/>
+      <c r="B419" s="3"/>
+      <c r="C419" s="3" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D419" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E419" s="3" t="s">
+        <v>1560</v>
+      </c>
+      <c r="F419" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G419" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A420" s="7"/>
+      <c r="B420" s="3"/>
+      <c r="C420" s="3" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D420" s="3" t="s">
+        <v>1564</v>
+      </c>
+      <c r="E420" s="3" t="s">
+        <v>1565</v>
+      </c>
+      <c r="F420" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="G420" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A421" s="7"/>
+      <c r="B421" s="3"/>
+      <c r="C421" s="3" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D421" s="3" t="s">
+        <v>1569</v>
+      </c>
+      <c r="E421" s="3" t="s">
+        <v>1570</v>
+      </c>
+      <c r="F421" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="G421" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A422" s="7"/>
+      <c r="B422" s="3"/>
+      <c r="C422" s="3" t="s">
+        <v>1573</v>
+      </c>
+      <c r="D422" s="3" t="s">
+        <v>1574</v>
+      </c>
+      <c r="E422" s="3" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F422" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="G422" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A423" s="7"/>
+      <c r="B423" s="3"/>
+      <c r="C423" s="3" t="s">
+        <v>1578</v>
+      </c>
+      <c r="D423" s="3" t="s">
+        <v>1579</v>
+      </c>
+      <c r="E423" s="3" t="s">
+        <v>1580</v>
+      </c>
+      <c r="F423" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="G423" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A424" s="7"/>
+      <c r="B424" s="3"/>
+      <c r="C424" s="3" t="s">
+        <v>1583</v>
+      </c>
+      <c r="D424" s="3" t="s">
+        <v>1584</v>
+      </c>
+      <c r="E424" s="3" t="s">
+        <v>1585</v>
+      </c>
+      <c r="F424" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="G424" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A425" s="7"/>
+      <c r="B425" s="3"/>
+      <c r="C425" s="3" t="s">
+        <v>1587</v>
+      </c>
+      <c r="D425" s="3" t="s">
+        <v>1588</v>
+      </c>
+      <c r="E425" s="3" t="s">
+        <v>1589</v>
+      </c>
+      <c r="F425" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="G425" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="A426" s="7"/>
+      <c r="B426" s="3"/>
+      <c r="C426" s="3" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D426" s="3" t="s">
+        <v>1593</v>
+      </c>
+      <c r="E426" s="3" t="s">
+        <v>1594</v>
+      </c>
+      <c r="F426" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="G426" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A427" s="8"/>
+      <c r="B427" s="3"/>
+      <c r="C427" s="3" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D427" s="3" t="s">
+        <v>1596</v>
+      </c>
+      <c r="E427" s="3" t="s">
+        <v>1551</v>
+      </c>
+      <c r="F427" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G427" s="3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/src/ontology/terms-extraction/cpptraj-10k-occurence_merged.xlsx
+++ b/src/ontology/terms-extraction/cpptraj-10k-occurence_merged.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\fathoni\github\molsim-ontology\src\ontology\terms-extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DA9EE6-57BB-4488-9F5E-5EC989DB2C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C0DC61-1303-423E-B8D9-664D0892F218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1710" yWindow="-18120" windowWidth="29040" windowHeight="17520" activeTab="3" xr2:uid="{41106041-1982-4E74-9156-BB0487A0D691}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5880" uniqueCount="1601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6305" uniqueCount="1600">
   <si>
     <t>Term</t>
   </si>
@@ -4837,9 +4837,6 @@
   </si>
   <si>
     <t>skip? (-=yes)</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
 </sst>
 </file>
@@ -4885,7 +4882,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -4913,20 +4910,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4941,13 +4929,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4980,13 +4965,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
@@ -4997,6 +4975,16 @@
         <top style="thin">
           <color auto="1"/>
         </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
@@ -5022,9 +5010,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -5040,25 +5025,6 @@
         <name val="Arial"/>
         <family val="2"/>
         <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
       </font>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -5173,6 +5139,25 @@
         <name val="Arial"/>
         <family val="2"/>
         <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -5357,22 +5342,22 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{42C18C25-2D20-4E1B-9B5E-51A0D85C0CB3}" name="Table13" displayName="Table13" ref="B1:G427" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{42C18C25-2D20-4E1B-9B5E-51A0D85C0CB3}" name="Table13" displayName="Table13" ref="B1:G427" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="B1:G427" xr:uid="{42C18C25-2D20-4E1B-9B5E-51A0D85C0CB3}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{DDE9457E-4DB7-438B-9719-987E4EA0E53F}" name="SeqNo" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{C184ED0B-4B92-47F3-8143-13793E62ABC8}" name="Term" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{98037EF8-1E7F-47C4-8EAB-395406751DA4}" name="Variable" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{DF31CB15-8169-4C70-B5D5-24033FEC7253}" name="Description" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{F50EBF01-0CD6-464A-ABA9-250B251F1671}" name="Cat1|Cat2|..." dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{9E567AE2-8551-458F-BFA7-A0D8A467E1B4}" name="freq" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{DDE9457E-4DB7-438B-9719-987E4EA0E53F}" name="SeqNo" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{C184ED0B-4B92-47F3-8143-13793E62ABC8}" name="Term" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{98037EF8-1E7F-47C4-8EAB-395406751DA4}" name="Variable" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{DF31CB15-8169-4C70-B5D5-24033FEC7253}" name="Description" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{F50EBF01-0CD6-464A-ABA9-250B251F1671}" name="Cat1|Cat2|..." dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{9E567AE2-8551-458F-BFA7-A0D8A467E1B4}" name="freq" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{329D34C6-6AFA-4799-96FC-1A9B7A89128F}" name="Table3" displayName="Table3" ref="A1:A427" totalsRowShown="0" headerRowDxfId="4" dataDxfId="5" headerRowBorderDxfId="2" tableBorderDxfId="3" totalsRowBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{329D34C6-6AFA-4799-96FC-1A9B7A89128F}" name="Table3" displayName="Table3" ref="A1:A427" totalsRowShown="0" headerRowDxfId="5" dataDxfId="3" headerRowBorderDxfId="4" tableBorderDxfId="2" totalsRowBorderDxfId="1">
   <autoFilter ref="A1:A427" xr:uid="{329D34C6-6AFA-4799-96FC-1A9B7A89128F}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{444B4197-2A6A-4631-9469-9762CA8CBBDD}" name="skip? (-=yes)" dataDxfId="0"/>
@@ -25181,8 +25166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23C3501C-AE45-46A7-8757-17633D9B7137}">
   <dimension ref="A1:G427"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A430" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -25221,7 +25206,9 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="6"/>
+      <c r="A2" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B2" s="3">
         <v>1</v>
       </c>
@@ -25242,7 +25229,9 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="7"/>
+      <c r="A3" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B3" s="3">
         <v>2</v>
       </c>
@@ -25263,7 +25252,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="7"/>
+      <c r="A4" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B4" s="3">
         <v>3</v>
       </c>
@@ -25284,7 +25275,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A5" s="7"/>
+      <c r="A5" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B5" s="3">
         <v>4</v>
       </c>
@@ -25305,7 +25298,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A6" s="7"/>
+      <c r="A6" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B6" s="3">
         <v>5</v>
       </c>
@@ -25326,7 +25321,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="7"/>
+      <c r="A7" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B7" s="3">
         <v>6</v>
       </c>
@@ -25347,7 +25344,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="7"/>
+      <c r="A8" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B8" s="3">
         <v>7</v>
       </c>
@@ -25368,7 +25367,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="7"/>
+      <c r="A9" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B9" s="3">
         <v>8</v>
       </c>
@@ -25389,7 +25390,9 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="7"/>
+      <c r="A10" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B10" s="3">
         <v>9</v>
       </c>
@@ -25410,7 +25413,9 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="7"/>
+      <c r="A11" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B11" s="3">
         <v>10</v>
       </c>
@@ -25431,7 +25436,9 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="7"/>
+      <c r="A12" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B12" s="3">
         <v>11</v>
       </c>
@@ -25452,7 +25459,9 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="7"/>
+      <c r="A13" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B13" s="3">
         <v>12</v>
       </c>
@@ -25473,7 +25482,9 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="7"/>
+      <c r="A14" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B14" s="3">
         <v>13</v>
       </c>
@@ -25494,7 +25505,9 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="7"/>
+      <c r="A15" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B15" s="3">
         <v>14</v>
       </c>
@@ -25515,7 +25528,9 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="7"/>
+      <c r="A16" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B16" s="3">
         <v>15</v>
       </c>
@@ -25536,7 +25551,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A17" s="7"/>
+      <c r="A17" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B17" s="3">
         <v>16</v>
       </c>
@@ -25557,7 +25574,9 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="7"/>
+      <c r="A18" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B18" s="3">
         <v>17</v>
       </c>
@@ -25578,7 +25597,9 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="7"/>
+      <c r="A19" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B19" s="3">
         <v>18</v>
       </c>
@@ -25599,7 +25620,9 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A20" s="7"/>
+      <c r="A20" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B20" s="3">
         <v>19</v>
       </c>
@@ -25620,7 +25643,9 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="7"/>
+      <c r="A21" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B21" s="3">
         <v>20</v>
       </c>
@@ -25641,7 +25666,9 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="7"/>
+      <c r="A22" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B22" s="3">
         <v>21</v>
       </c>
@@ -25662,7 +25689,9 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A23" s="7"/>
+      <c r="A23" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B23" s="3">
         <v>22</v>
       </c>
@@ -25683,7 +25712,9 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="7"/>
+      <c r="A24" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B24" s="3">
         <v>23</v>
       </c>
@@ -25704,7 +25735,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="7"/>
+      <c r="A25" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B25" s="3">
         <v>24</v>
       </c>
@@ -25725,7 +25758,9 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="7"/>
+      <c r="A26" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B26" s="3">
         <v>25</v>
       </c>
@@ -25746,7 +25781,9 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="7"/>
+      <c r="A27" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B27" s="3">
         <v>26</v>
       </c>
@@ -25767,7 +25804,9 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="7"/>
+      <c r="A28" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B28" s="3">
         <v>27</v>
       </c>
@@ -25788,7 +25827,9 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="7"/>
+      <c r="A29" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B29" s="3">
         <v>28</v>
       </c>
@@ -25809,7 +25850,9 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A30" s="7"/>
+      <c r="A30" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B30" s="3">
         <v>29</v>
       </c>
@@ -25830,7 +25873,9 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="7"/>
+      <c r="A31" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B31" s="3">
         <v>30</v>
       </c>
@@ -25851,7 +25896,9 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="7"/>
+      <c r="A32" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B32" s="3">
         <v>31</v>
       </c>
@@ -25872,7 +25919,9 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="7"/>
+      <c r="A33" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B33" s="3">
         <v>32</v>
       </c>
@@ -25893,7 +25942,9 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A34" s="7"/>
+      <c r="A34" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B34" s="3">
         <v>33</v>
       </c>
@@ -25914,7 +25965,9 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="7"/>
+      <c r="A35" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B35" s="3">
         <v>34</v>
       </c>
@@ -25935,7 +25988,9 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="7"/>
+      <c r="A36" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B36" s="3">
         <v>35</v>
       </c>
@@ -25956,7 +26011,9 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="7"/>
+      <c r="A37" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B37" s="3">
         <v>36</v>
       </c>
@@ -25977,7 +26034,9 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="7"/>
+      <c r="A38" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B38" s="3">
         <v>37</v>
       </c>
@@ -25998,7 +26057,9 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="7"/>
+      <c r="A39" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B39" s="3">
         <v>38</v>
       </c>
@@ -26019,7 +26080,9 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="7"/>
+      <c r="A40" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B40" s="3">
         <v>39</v>
       </c>
@@ -26040,7 +26103,9 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="7"/>
+      <c r="A41" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B41" s="3">
         <v>40</v>
       </c>
@@ -26061,7 +26126,9 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="7"/>
+      <c r="A42" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B42" s="3">
         <v>41</v>
       </c>
@@ -26082,7 +26149,9 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="7"/>
+      <c r="A43" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B43" s="3">
         <v>42</v>
       </c>
@@ -26103,7 +26172,9 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="7"/>
+      <c r="A44" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B44" s="3">
         <v>43</v>
       </c>
@@ -26124,7 +26195,9 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="7"/>
+      <c r="A45" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B45" s="3">
         <v>44</v>
       </c>
@@ -26145,7 +26218,9 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" s="7"/>
+      <c r="A46" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B46" s="3">
         <v>45</v>
       </c>
@@ -26166,7 +26241,9 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" s="7"/>
+      <c r="A47" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B47" s="3">
         <v>46</v>
       </c>
@@ -26187,7 +26264,9 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="7"/>
+      <c r="A48" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B48" s="3">
         <v>47</v>
       </c>
@@ -26208,7 +26287,9 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" s="7"/>
+      <c r="A49" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B49" s="3">
         <v>48</v>
       </c>
@@ -26229,7 +26310,9 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" s="7"/>
+      <c r="A50" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B50" s="3">
         <v>49</v>
       </c>
@@ -26250,7 +26333,9 @@
       </c>
     </row>
     <row r="51" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A51" s="7"/>
+      <c r="A51" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B51" s="3">
         <v>50</v>
       </c>
@@ -26271,7 +26356,9 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52" s="7"/>
+      <c r="A52" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B52" s="3">
         <v>51</v>
       </c>
@@ -26292,7 +26379,9 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A53" s="7"/>
+      <c r="A53" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B53" s="3">
         <v>52</v>
       </c>
@@ -26313,7 +26402,9 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" s="7"/>
+      <c r="A54" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B54" s="3">
         <v>53</v>
       </c>
@@ -26334,7 +26425,9 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" s="7"/>
+      <c r="A55" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B55" s="3">
         <v>54</v>
       </c>
@@ -26355,7 +26448,9 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" s="7"/>
+      <c r="A56" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B56" s="3">
         <v>55</v>
       </c>
@@ -26376,7 +26471,9 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A57" s="7"/>
+      <c r="A57" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B57" s="3">
         <v>56</v>
       </c>
@@ -26397,7 +26494,9 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58" s="7"/>
+      <c r="A58" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B58" s="3">
         <v>57</v>
       </c>
@@ -26418,7 +26517,9 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" s="7"/>
+      <c r="A59" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B59" s="3">
         <v>58</v>
       </c>
@@ -26439,7 +26540,9 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A60" s="7"/>
+      <c r="A60" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B60" s="3">
         <v>59</v>
       </c>
@@ -26460,7 +26563,9 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A61" s="7"/>
+      <c r="A61" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B61" s="3">
         <v>60</v>
       </c>
@@ -26481,7 +26586,9 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62" s="7"/>
+      <c r="A62" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B62" s="3">
         <v>61</v>
       </c>
@@ -26502,7 +26609,9 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A63" s="7"/>
+      <c r="A63" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B63" s="3">
         <v>62</v>
       </c>
@@ -26523,7 +26632,9 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A64" s="7"/>
+      <c r="A64" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B64" s="3">
         <v>63</v>
       </c>
@@ -26544,7 +26655,9 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" s="7"/>
+      <c r="A65" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B65" s="3">
         <v>64</v>
       </c>
@@ -26565,7 +26678,9 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" s="7"/>
+      <c r="A66" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B66" s="3">
         <v>65</v>
       </c>
@@ -26586,7 +26701,9 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A67" s="7"/>
+      <c r="A67" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B67" s="3">
         <v>66</v>
       </c>
@@ -26607,7 +26724,9 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68" s="7"/>
+      <c r="A68" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B68" s="3">
         <v>67</v>
       </c>
@@ -26628,7 +26747,9 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A69" s="7"/>
+      <c r="A69" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B69" s="3">
         <v>68</v>
       </c>
@@ -26649,7 +26770,9 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A70" s="7"/>
+      <c r="A70" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B70" s="3">
         <v>69</v>
       </c>
@@ -26670,7 +26793,9 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A71" s="7"/>
+      <c r="A71" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B71" s="3">
         <v>70</v>
       </c>
@@ -26691,7 +26816,9 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A72" s="7"/>
+      <c r="A72" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B72" s="3">
         <v>71</v>
       </c>
@@ -26712,7 +26839,9 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A73" s="7"/>
+      <c r="A73" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B73" s="3">
         <v>72</v>
       </c>
@@ -26733,7 +26862,9 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A74" s="7"/>
+      <c r="A74" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B74" s="3">
         <v>73</v>
       </c>
@@ -26754,7 +26885,9 @@
       </c>
     </row>
     <row r="75" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A75" s="7"/>
+      <c r="A75" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B75" s="3">
         <v>74</v>
       </c>
@@ -26775,7 +26908,9 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A76" s="7"/>
+      <c r="A76" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B76" s="3">
         <v>75</v>
       </c>
@@ -26796,7 +26931,9 @@
       </c>
     </row>
     <row r="77" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A77" s="7"/>
+      <c r="A77" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B77" s="3">
         <v>76</v>
       </c>
@@ -26817,7 +26954,9 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A78" s="7"/>
+      <c r="A78" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B78" s="3">
         <v>77</v>
       </c>
@@ -26838,7 +26977,9 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A79" s="7"/>
+      <c r="A79" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B79" s="3">
         <v>78</v>
       </c>
@@ -26859,7 +27000,9 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A80" s="7"/>
+      <c r="A80" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B80" s="3">
         <v>79</v>
       </c>
@@ -26880,7 +27023,9 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81" s="7"/>
+      <c r="A81" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B81" s="3">
         <v>80</v>
       </c>
@@ -26901,7 +27046,9 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82" s="7"/>
+      <c r="A82" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B82" s="3">
         <v>81</v>
       </c>
@@ -26922,7 +27069,9 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A83" s="7"/>
+      <c r="A83" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B83" s="3">
         <v>82</v>
       </c>
@@ -26943,7 +27092,9 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A84" s="7"/>
+      <c r="A84" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B84" s="3">
         <v>83</v>
       </c>
@@ -26964,7 +27115,9 @@
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A85" s="7"/>
+      <c r="A85" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B85" s="3">
         <v>84</v>
       </c>
@@ -26985,7 +27138,9 @@
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A86" s="7"/>
+      <c r="A86" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B86" s="3">
         <v>85</v>
       </c>
@@ -27006,7 +27161,9 @@
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A87" s="7"/>
+      <c r="A87" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B87" s="3">
         <v>86</v>
       </c>
@@ -27027,7 +27184,9 @@
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A88" s="7"/>
+      <c r="A88" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B88" s="3">
         <v>87</v>
       </c>
@@ -27048,7 +27207,9 @@
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A89" s="7"/>
+      <c r="A89" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B89" s="3">
         <v>88</v>
       </c>
@@ -27069,7 +27230,9 @@
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A90" s="7"/>
+      <c r="A90" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B90" s="3">
         <v>89</v>
       </c>
@@ -27090,7 +27253,9 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A91" s="7"/>
+      <c r="A91" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B91" s="3">
         <v>90</v>
       </c>
@@ -27111,7 +27276,9 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A92" s="7"/>
+      <c r="A92" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B92" s="3">
         <v>91</v>
       </c>
@@ -27132,7 +27299,9 @@
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A93" s="7"/>
+      <c r="A93" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B93" s="3">
         <v>92</v>
       </c>
@@ -27153,7 +27322,9 @@
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A94" s="7"/>
+      <c r="A94" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B94" s="3">
         <v>93</v>
       </c>
@@ -27174,7 +27345,9 @@
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A95" s="7"/>
+      <c r="A95" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B95" s="3">
         <v>94</v>
       </c>
@@ -27195,7 +27368,9 @@
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A96" s="7"/>
+      <c r="A96" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B96" s="3">
         <v>95</v>
       </c>
@@ -27216,7 +27391,9 @@
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A97" s="7"/>
+      <c r="A97" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B97" s="3">
         <v>96</v>
       </c>
@@ -27237,7 +27414,9 @@
       </c>
     </row>
     <row r="98" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A98" s="7"/>
+      <c r="A98" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B98" s="3">
         <v>97</v>
       </c>
@@ -27258,7 +27437,9 @@
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A99" s="7"/>
+      <c r="A99" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B99" s="3">
         <v>98</v>
       </c>
@@ -27279,7 +27460,9 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A100" s="7"/>
+      <c r="A100" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B100" s="3">
         <v>99</v>
       </c>
@@ -27300,7 +27483,9 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A101" s="7"/>
+      <c r="A101" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B101" s="3">
         <v>100</v>
       </c>
@@ -27321,7 +27506,9 @@
       </c>
     </row>
     <row r="102" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A102" s="7"/>
+      <c r="A102" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B102" s="3">
         <v>101</v>
       </c>
@@ -27342,7 +27529,9 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A103" s="7"/>
+      <c r="A103" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B103" s="3">
         <v>102</v>
       </c>
@@ -27363,7 +27552,9 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A104" s="7"/>
+      <c r="A104" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B104" s="3">
         <v>103</v>
       </c>
@@ -27384,7 +27575,9 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A105" s="7"/>
+      <c r="A105" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B105" s="3">
         <v>104</v>
       </c>
@@ -27405,7 +27598,9 @@
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A106" s="7"/>
+      <c r="A106" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B106" s="3">
         <v>105</v>
       </c>
@@ -27426,7 +27621,9 @@
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A107" s="7"/>
+      <c r="A107" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B107" s="3">
         <v>106</v>
       </c>
@@ -27447,7 +27644,9 @@
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A108" s="7"/>
+      <c r="A108" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B108" s="3">
         <v>107</v>
       </c>
@@ -27468,7 +27667,9 @@
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A109" s="7"/>
+      <c r="A109" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B109" s="3">
         <v>108</v>
       </c>
@@ -27489,7 +27690,9 @@
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A110" s="7"/>
+      <c r="A110" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B110" s="3">
         <v>109</v>
       </c>
@@ -27510,7 +27713,9 @@
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A111" s="7"/>
+      <c r="A111" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B111" s="3">
         <v>110</v>
       </c>
@@ -27531,7 +27736,9 @@
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A112" s="7"/>
+      <c r="A112" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B112" s="3">
         <v>111</v>
       </c>
@@ -27552,7 +27759,9 @@
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A113" s="7"/>
+      <c r="A113" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B113" s="3">
         <v>112</v>
       </c>
@@ -27573,7 +27782,9 @@
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A114" s="7"/>
+      <c r="A114" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B114" s="3">
         <v>113</v>
       </c>
@@ -27594,7 +27805,9 @@
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A115" s="7"/>
+      <c r="A115" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B115" s="3">
         <v>114</v>
       </c>
@@ -27615,7 +27828,9 @@
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A116" s="7"/>
+      <c r="A116" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B116" s="3">
         <v>115</v>
       </c>
@@ -27636,7 +27851,9 @@
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A117" s="7"/>
+      <c r="A117" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B117" s="3">
         <v>116</v>
       </c>
@@ -27657,7 +27874,9 @@
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A118" s="7"/>
+      <c r="A118" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B118" s="3">
         <v>117</v>
       </c>
@@ -27678,7 +27897,9 @@
       </c>
     </row>
     <row r="119" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A119" s="7"/>
+      <c r="A119" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B119" s="3">
         <v>118</v>
       </c>
@@ -27699,7 +27920,9 @@
       </c>
     </row>
     <row r="120" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A120" s="7"/>
+      <c r="A120" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B120" s="3">
         <v>119</v>
       </c>
@@ -27720,7 +27943,9 @@
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A121" s="7"/>
+      <c r="A121" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B121" s="3">
         <v>120</v>
       </c>
@@ -27741,7 +27966,9 @@
       </c>
     </row>
     <row r="122" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A122" s="7"/>
+      <c r="A122" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B122" s="3">
         <v>121</v>
       </c>
@@ -27762,7 +27989,9 @@
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A123" s="7"/>
+      <c r="A123" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B123" s="3">
         <v>122</v>
       </c>
@@ -27783,7 +28012,9 @@
       </c>
     </row>
     <row r="124" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A124" s="7"/>
+      <c r="A124" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B124" s="3">
         <v>123</v>
       </c>
@@ -27804,7 +28035,9 @@
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A125" s="7"/>
+      <c r="A125" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B125" s="3">
         <v>124</v>
       </c>
@@ -27825,7 +28058,9 @@
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A126" s="7"/>
+      <c r="A126" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B126" s="3">
         <v>125</v>
       </c>
@@ -27846,7 +28081,9 @@
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A127" s="7"/>
+      <c r="A127" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B127" s="3">
         <v>126</v>
       </c>
@@ -27867,7 +28104,9 @@
       </c>
     </row>
     <row r="128" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A128" s="7"/>
+      <c r="A128" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B128" s="3">
         <v>127</v>
       </c>
@@ -27888,7 +28127,9 @@
       </c>
     </row>
     <row r="129" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A129" s="7"/>
+      <c r="A129" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B129" s="3">
         <v>128</v>
       </c>
@@ -27909,7 +28150,9 @@
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A130" s="7"/>
+      <c r="A130" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B130" s="3">
         <v>129</v>
       </c>
@@ -27930,7 +28173,9 @@
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A131" s="7"/>
+      <c r="A131" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B131" s="3">
         <v>130</v>
       </c>
@@ -27951,7 +28196,9 @@
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A132" s="7"/>
+      <c r="A132" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B132" s="3">
         <v>131</v>
       </c>
@@ -27972,7 +28219,9 @@
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A133" s="7"/>
+      <c r="A133" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B133" s="3">
         <v>132</v>
       </c>
@@ -27993,7 +28242,9 @@
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A134" s="7"/>
+      <c r="A134" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B134" s="3">
         <v>133</v>
       </c>
@@ -28014,7 +28265,9 @@
       </c>
     </row>
     <row r="135" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A135" s="7"/>
+      <c r="A135" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B135" s="3">
         <v>134</v>
       </c>
@@ -28035,7 +28288,9 @@
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A136" s="7"/>
+      <c r="A136" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B136" s="3">
         <v>135</v>
       </c>
@@ -28056,7 +28311,9 @@
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A137" s="7"/>
+      <c r="A137" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B137" s="3">
         <v>136</v>
       </c>
@@ -28077,7 +28334,9 @@
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A138" s="7"/>
+      <c r="A138" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B138" s="3">
         <v>137</v>
       </c>
@@ -28098,7 +28357,9 @@
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A139" s="7"/>
+      <c r="A139" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B139" s="3">
         <v>138</v>
       </c>
@@ -28119,7 +28380,9 @@
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A140" s="7"/>
+      <c r="A140" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B140" s="3">
         <v>139</v>
       </c>
@@ -28140,7 +28403,9 @@
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A141" s="7"/>
+      <c r="A141" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B141" s="3">
         <v>140</v>
       </c>
@@ -28161,7 +28426,9 @@
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A142" s="7"/>
+      <c r="A142" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B142" s="3">
         <v>141</v>
       </c>
@@ -28182,7 +28449,9 @@
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A143" s="7"/>
+      <c r="A143" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B143" s="3">
         <v>142</v>
       </c>
@@ -28203,7 +28472,9 @@
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A144" s="7"/>
+      <c r="A144" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B144" s="3">
         <v>143</v>
       </c>
@@ -28224,7 +28495,9 @@
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A145" s="7"/>
+      <c r="A145" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B145" s="3">
         <v>144</v>
       </c>
@@ -28245,7 +28518,9 @@
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A146" s="7"/>
+      <c r="A146" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B146" s="3">
         <v>145</v>
       </c>
@@ -28266,7 +28541,9 @@
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A147" s="7"/>
+      <c r="A147" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B147" s="3">
         <v>146</v>
       </c>
@@ -28287,7 +28564,9 @@
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A148" s="7"/>
+      <c r="A148" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B148" s="3">
         <v>147</v>
       </c>
@@ -28308,7 +28587,9 @@
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A149" s="7"/>
+      <c r="A149" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B149" s="3">
         <v>148</v>
       </c>
@@ -28329,7 +28610,9 @@
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A150" s="7"/>
+      <c r="A150" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B150" s="3">
         <v>149</v>
       </c>
@@ -28350,7 +28633,9 @@
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A151" s="7"/>
+      <c r="A151" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B151" s="3">
         <v>150</v>
       </c>
@@ -28371,7 +28656,9 @@
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A152" s="7"/>
+      <c r="A152" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B152" s="3">
         <v>151</v>
       </c>
@@ -28392,7 +28679,9 @@
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A153" s="7"/>
+      <c r="A153" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B153" s="3">
         <v>152</v>
       </c>
@@ -28413,7 +28702,9 @@
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A154" s="7"/>
+      <c r="A154" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B154" s="3">
         <v>153</v>
       </c>
@@ -28434,7 +28725,9 @@
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A155" s="7"/>
+      <c r="A155" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B155" s="3">
         <v>154</v>
       </c>
@@ -28455,7 +28748,9 @@
       </c>
     </row>
     <row r="156" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A156" s="7"/>
+      <c r="A156" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B156" s="3">
         <v>155</v>
       </c>
@@ -28476,7 +28771,9 @@
       </c>
     </row>
     <row r="157" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A157" s="7"/>
+      <c r="A157" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B157" s="3">
         <v>156</v>
       </c>
@@ -28497,7 +28794,9 @@
       </c>
     </row>
     <row r="158" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A158" s="7"/>
+      <c r="A158" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B158" s="3">
         <v>157</v>
       </c>
@@ -28518,7 +28817,9 @@
       </c>
     </row>
     <row r="159" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A159" s="7"/>
+      <c r="A159" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B159" s="3">
         <v>158</v>
       </c>
@@ -28539,7 +28840,9 @@
       </c>
     </row>
     <row r="160" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A160" s="7"/>
+      <c r="A160" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B160" s="3">
         <v>159</v>
       </c>
@@ -28560,7 +28863,9 @@
       </c>
     </row>
     <row r="161" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A161" s="7"/>
+      <c r="A161" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B161" s="3">
         <v>160</v>
       </c>
@@ -28581,7 +28886,9 @@
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A162" s="7"/>
+      <c r="A162" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B162" s="3">
         <v>161</v>
       </c>
@@ -28602,7 +28909,9 @@
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A163" s="7"/>
+      <c r="A163" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B163" s="3">
         <v>162</v>
       </c>
@@ -28623,7 +28932,9 @@
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A164" s="7"/>
+      <c r="A164" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B164" s="3">
         <v>163</v>
       </c>
@@ -28644,7 +28955,9 @@
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A165" s="7"/>
+      <c r="A165" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B165" s="3">
         <v>164</v>
       </c>
@@ -28665,7 +28978,9 @@
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A166" s="7"/>
+      <c r="A166" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B166" s="3">
         <v>165</v>
       </c>
@@ -28686,7 +29001,9 @@
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A167" s="7"/>
+      <c r="A167" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B167" s="3">
         <v>166</v>
       </c>
@@ -28707,7 +29024,9 @@
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A168" s="7"/>
+      <c r="A168" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B168" s="3">
         <v>167</v>
       </c>
@@ -28728,7 +29047,9 @@
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A169" s="7"/>
+      <c r="A169" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B169" s="3">
         <v>168</v>
       </c>
@@ -28749,7 +29070,9 @@
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A170" s="7"/>
+      <c r="A170" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B170" s="3">
         <v>169</v>
       </c>
@@ -28770,7 +29093,9 @@
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A171" s="7"/>
+      <c r="A171" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B171" s="3">
         <v>170</v>
       </c>
@@ -28791,7 +29116,9 @@
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A172" s="7"/>
+      <c r="A172" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B172" s="3">
         <v>171</v>
       </c>
@@ -28812,7 +29139,9 @@
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A173" s="7"/>
+      <c r="A173" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B173" s="3">
         <v>172</v>
       </c>
@@ -28833,7 +29162,9 @@
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A174" s="7"/>
+      <c r="A174" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B174" s="3">
         <v>173</v>
       </c>
@@ -28854,7 +29185,9 @@
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A175" s="7"/>
+      <c r="A175" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B175" s="3">
         <v>174</v>
       </c>
@@ -28875,7 +29208,9 @@
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A176" s="7"/>
+      <c r="A176" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B176" s="3">
         <v>175</v>
       </c>
@@ -28896,7 +29231,9 @@
       </c>
     </row>
     <row r="177" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A177" s="7"/>
+      <c r="A177" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B177" s="3">
         <v>176</v>
       </c>
@@ -28917,7 +29254,9 @@
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A178" s="7"/>
+      <c r="A178" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B178" s="3">
         <v>177</v>
       </c>
@@ -28938,7 +29277,9 @@
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A179" s="7"/>
+      <c r="A179" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B179" s="3">
         <v>178</v>
       </c>
@@ -28959,7 +29300,9 @@
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A180" s="7"/>
+      <c r="A180" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B180" s="3">
         <v>179</v>
       </c>
@@ -28980,7 +29323,9 @@
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A181" s="7"/>
+      <c r="A181" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B181" s="3">
         <v>180</v>
       </c>
@@ -29001,7 +29346,9 @@
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A182" s="7"/>
+      <c r="A182" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B182" s="3">
         <v>181</v>
       </c>
@@ -29022,7 +29369,9 @@
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A183" s="7"/>
+      <c r="A183" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B183" s="3">
         <v>182</v>
       </c>
@@ -29043,7 +29392,9 @@
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A184" s="7"/>
+      <c r="A184" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B184" s="3">
         <v>183</v>
       </c>
@@ -29064,7 +29415,9 @@
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A185" s="7"/>
+      <c r="A185" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B185" s="3">
         <v>184</v>
       </c>
@@ -29085,7 +29438,9 @@
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A186" s="7"/>
+      <c r="A186" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B186" s="3">
         <v>185</v>
       </c>
@@ -29106,7 +29461,9 @@
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A187" s="7"/>
+      <c r="A187" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B187" s="3">
         <v>186</v>
       </c>
@@ -29127,7 +29484,9 @@
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A188" s="7"/>
+      <c r="A188" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B188" s="3">
         <v>187</v>
       </c>
@@ -29148,7 +29507,9 @@
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A189" s="7"/>
+      <c r="A189" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B189" s="3">
         <v>188</v>
       </c>
@@ -29169,7 +29530,9 @@
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A190" s="7"/>
+      <c r="A190" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B190" s="3">
         <v>189</v>
       </c>
@@ -29190,7 +29553,9 @@
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A191" s="7"/>
+      <c r="A191" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B191" s="3">
         <v>190</v>
       </c>
@@ -29211,7 +29576,9 @@
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A192" s="7"/>
+      <c r="A192" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B192" s="3">
         <v>191</v>
       </c>
@@ -29232,7 +29599,9 @@
       </c>
     </row>
     <row r="193" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A193" s="7"/>
+      <c r="A193" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B193" s="3">
         <v>192</v>
       </c>
@@ -29253,7 +29622,9 @@
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A194" s="7"/>
+      <c r="A194" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B194" s="3">
         <v>193</v>
       </c>
@@ -29274,7 +29645,9 @@
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A195" s="7"/>
+      <c r="A195" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B195" s="3">
         <v>194</v>
       </c>
@@ -29295,7 +29668,9 @@
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A196" s="7"/>
+      <c r="A196" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B196" s="3">
         <v>195</v>
       </c>
@@ -29316,7 +29691,9 @@
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A197" s="7"/>
+      <c r="A197" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B197" s="3">
         <v>196</v>
       </c>
@@ -29337,7 +29714,9 @@
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A198" s="7"/>
+      <c r="A198" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B198" s="3">
         <v>197</v>
       </c>
@@ -29358,7 +29737,9 @@
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A199" s="7"/>
+      <c r="A199" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B199" s="3">
         <v>198</v>
       </c>
@@ -29379,7 +29760,9 @@
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A200" s="7"/>
+      <c r="A200" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B200" s="3">
         <v>199</v>
       </c>
@@ -29400,7 +29783,9 @@
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A201" s="7"/>
+      <c r="A201" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B201" s="3">
         <v>200</v>
       </c>
@@ -29421,7 +29806,9 @@
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A202" s="7"/>
+      <c r="A202" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B202" s="3">
         <v>201</v>
       </c>
@@ -29442,7 +29829,9 @@
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A203" s="7"/>
+      <c r="A203" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B203" s="3">
         <v>202</v>
       </c>
@@ -29463,7 +29852,9 @@
       </c>
     </row>
     <row r="204" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A204" s="7"/>
+      <c r="A204" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B204" s="3">
         <v>203</v>
       </c>
@@ -29484,7 +29875,9 @@
       </c>
     </row>
     <row r="205" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A205" s="7"/>
+      <c r="A205" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B205" s="3">
         <v>204</v>
       </c>
@@ -29505,7 +29898,9 @@
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A206" s="7"/>
+      <c r="A206" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B206" s="3">
         <v>205</v>
       </c>
@@ -29526,7 +29921,9 @@
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A207" s="7"/>
+      <c r="A207" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B207" s="3">
         <v>206</v>
       </c>
@@ -29547,7 +29944,9 @@
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A208" s="7"/>
+      <c r="A208" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B208" s="3">
         <v>207</v>
       </c>
@@ -29568,7 +29967,9 @@
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A209" s="7"/>
+      <c r="A209" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B209" s="3">
         <v>208</v>
       </c>
@@ -29589,7 +29990,9 @@
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A210" s="7"/>
+      <c r="A210" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B210" s="3">
         <v>209</v>
       </c>
@@ -29610,7 +30013,9 @@
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A211" s="7"/>
+      <c r="A211" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B211" s="3">
         <v>210</v>
       </c>
@@ -29631,7 +30036,9 @@
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A212" s="7"/>
+      <c r="A212" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B212" s="3">
         <v>211</v>
       </c>
@@ -29652,7 +30059,9 @@
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A213" s="7"/>
+      <c r="A213" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B213" s="3">
         <v>212</v>
       </c>
@@ -29673,7 +30082,9 @@
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A214" s="7"/>
+      <c r="A214" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B214" s="3">
         <v>213</v>
       </c>
@@ -29694,7 +30105,9 @@
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A215" s="7"/>
+      <c r="A215" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B215" s="3">
         <v>214</v>
       </c>
@@ -29715,7 +30128,9 @@
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A216" s="7"/>
+      <c r="A216" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B216" s="3">
         <v>215</v>
       </c>
@@ -29736,7 +30151,9 @@
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A217" s="7"/>
+      <c r="A217" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B217" s="3">
         <v>216</v>
       </c>
@@ -29757,7 +30174,9 @@
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A218" s="7"/>
+      <c r="A218" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B218" s="3">
         <v>217</v>
       </c>
@@ -29778,7 +30197,9 @@
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A219" s="7"/>
+      <c r="A219" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B219" s="3">
         <v>218</v>
       </c>
@@ -29799,7 +30220,9 @@
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A220" s="7"/>
+      <c r="A220" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B220" s="3">
         <v>219</v>
       </c>
@@ -29820,7 +30243,9 @@
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A221" s="7"/>
+      <c r="A221" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B221" s="3">
         <v>220</v>
       </c>
@@ -29841,7 +30266,9 @@
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A222" s="7"/>
+      <c r="A222" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B222" s="3">
         <v>221</v>
       </c>
@@ -29862,7 +30289,9 @@
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A223" s="7"/>
+      <c r="A223" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B223" s="3">
         <v>222</v>
       </c>
@@ -29883,7 +30312,9 @@
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A224" s="7"/>
+      <c r="A224" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B224" s="3">
         <v>223</v>
       </c>
@@ -29904,7 +30335,9 @@
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A225" s="7"/>
+      <c r="A225" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B225" s="3">
         <v>224</v>
       </c>
@@ -29925,7 +30358,9 @@
       </c>
     </row>
     <row r="226" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A226" s="7"/>
+      <c r="A226" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B226" s="3">
         <v>225</v>
       </c>
@@ -29946,7 +30381,9 @@
       </c>
     </row>
     <row r="227" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A227" s="7"/>
+      <c r="A227" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B227" s="3">
         <v>226</v>
       </c>
@@ -29967,7 +30404,9 @@
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A228" s="7"/>
+      <c r="A228" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B228" s="3">
         <v>227</v>
       </c>
@@ -29988,7 +30427,9 @@
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A229" s="7"/>
+      <c r="A229" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B229" s="3">
         <v>228</v>
       </c>
@@ -30009,7 +30450,9 @@
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A230" s="7"/>
+      <c r="A230" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B230" s="3">
         <v>229</v>
       </c>
@@ -30030,7 +30473,9 @@
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A231" s="7"/>
+      <c r="A231" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B231" s="3">
         <v>230</v>
       </c>
@@ -30051,7 +30496,9 @@
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A232" s="7"/>
+      <c r="A232" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B232" s="3">
         <v>231</v>
       </c>
@@ -30072,7 +30519,9 @@
       </c>
     </row>
     <row r="233" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A233" s="7"/>
+      <c r="A233" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B233" s="3">
         <v>232</v>
       </c>
@@ -30093,7 +30542,9 @@
       </c>
     </row>
     <row r="234" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A234" s="7"/>
+      <c r="A234" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B234" s="3">
         <v>233</v>
       </c>
@@ -30114,7 +30565,9 @@
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A235" s="7"/>
+      <c r="A235" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B235" s="3">
         <v>234</v>
       </c>
@@ -30135,7 +30588,9 @@
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A236" s="7"/>
+      <c r="A236" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B236" s="3">
         <v>235</v>
       </c>
@@ -30156,7 +30611,9 @@
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A237" s="7"/>
+      <c r="A237" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B237" s="3">
         <v>236</v>
       </c>
@@ -30177,7 +30634,9 @@
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A238" s="7"/>
+      <c r="A238" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B238" s="3">
         <v>237</v>
       </c>
@@ -30198,7 +30657,9 @@
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A239" s="7"/>
+      <c r="A239" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B239" s="3">
         <v>238</v>
       </c>
@@ -30219,7 +30680,9 @@
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A240" s="7"/>
+      <c r="A240" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B240" s="3">
         <v>239</v>
       </c>
@@ -30240,7 +30703,9 @@
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A241" s="7"/>
+      <c r="A241" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B241" s="3">
         <v>240</v>
       </c>
@@ -30261,7 +30726,9 @@
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A242" s="7"/>
+      <c r="A242" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B242" s="3">
         <v>241</v>
       </c>
@@ -30282,7 +30749,9 @@
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A243" s="7"/>
+      <c r="A243" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B243" s="3">
         <v>242</v>
       </c>
@@ -30303,7 +30772,9 @@
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A244" s="7"/>
+      <c r="A244" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B244" s="3">
         <v>243</v>
       </c>
@@ -30324,7 +30795,9 @@
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A245" s="7"/>
+      <c r="A245" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B245" s="3">
         <v>244</v>
       </c>
@@ -30345,7 +30818,9 @@
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A246" s="7"/>
+      <c r="A246" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B246" s="3">
         <v>245</v>
       </c>
@@ -30366,7 +30841,9 @@
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A247" s="7"/>
+      <c r="A247" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B247" s="3">
         <v>246</v>
       </c>
@@ -30387,7 +30864,9 @@
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A248" s="7"/>
+      <c r="A248" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B248" s="3">
         <v>247</v>
       </c>
@@ -30408,7 +30887,9 @@
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A249" s="7"/>
+      <c r="A249" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B249" s="3">
         <v>248</v>
       </c>
@@ -30429,7 +30910,9 @@
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A250" s="7"/>
+      <c r="A250" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B250" s="3">
         <v>249</v>
       </c>
@@ -30450,7 +30933,9 @@
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A251" s="7"/>
+      <c r="A251" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B251" s="3">
         <v>250</v>
       </c>
@@ -30471,7 +30956,9 @@
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A252" s="7"/>
+      <c r="A252" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B252" s="3">
         <v>251</v>
       </c>
@@ -30492,7 +30979,9 @@
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A253" s="7"/>
+      <c r="A253" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B253" s="3">
         <v>252</v>
       </c>
@@ -30513,7 +31002,9 @@
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A254" s="7"/>
+      <c r="A254" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B254" s="3">
         <v>253</v>
       </c>
@@ -30534,7 +31025,9 @@
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A255" s="7"/>
+      <c r="A255" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B255" s="3">
         <v>254</v>
       </c>
@@ -30555,7 +31048,9 @@
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A256" s="7"/>
+      <c r="A256" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B256" s="3">
         <v>255</v>
       </c>
@@ -30576,7 +31071,9 @@
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A257" s="7"/>
+      <c r="A257" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B257" s="3">
         <v>256</v>
       </c>
@@ -30597,7 +31094,9 @@
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A258" s="7"/>
+      <c r="A258" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B258" s="3">
         <v>257</v>
       </c>
@@ -30618,7 +31117,9 @@
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A259" s="7"/>
+      <c r="A259" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B259" s="3">
         <v>258</v>
       </c>
@@ -30639,7 +31140,9 @@
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A260" s="7"/>
+      <c r="A260" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B260" s="3">
         <v>259</v>
       </c>
@@ -30660,7 +31163,9 @@
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A261" s="7"/>
+      <c r="A261" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B261" s="3">
         <v>260</v>
       </c>
@@ -30681,7 +31186,9 @@
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A262" s="7"/>
+      <c r="A262" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B262" s="3">
         <v>261</v>
       </c>
@@ -30702,7 +31209,9 @@
       </c>
     </row>
     <row r="263" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A263" s="7"/>
+      <c r="A263" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B263" s="3">
         <v>262</v>
       </c>
@@ -30723,7 +31232,9 @@
       </c>
     </row>
     <row r="264" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A264" s="7"/>
+      <c r="A264" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B264" s="3">
         <v>263</v>
       </c>
@@ -30744,7 +31255,9 @@
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A265" s="7"/>
+      <c r="A265" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B265" s="3">
         <v>264</v>
       </c>
@@ -30765,7 +31278,9 @@
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A266" s="7"/>
+      <c r="A266" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B266" s="3">
         <v>265</v>
       </c>
@@ -30786,7 +31301,9 @@
       </c>
     </row>
     <row r="267" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A267" s="7"/>
+      <c r="A267" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B267" s="3">
         <v>266</v>
       </c>
@@ -30807,7 +31324,9 @@
       </c>
     </row>
     <row r="268" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A268" s="7"/>
+      <c r="A268" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B268" s="3">
         <v>267</v>
       </c>
@@ -30828,7 +31347,9 @@
       </c>
     </row>
     <row r="269" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A269" s="7"/>
+      <c r="A269" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B269" s="3">
         <v>268</v>
       </c>
@@ -30849,7 +31370,9 @@
       </c>
     </row>
     <row r="270" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A270" s="7"/>
+      <c r="A270" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B270" s="3">
         <v>269</v>
       </c>
@@ -30870,7 +31393,9 @@
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A271" s="7"/>
+      <c r="A271" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B271" s="3">
         <v>270</v>
       </c>
@@ -30891,7 +31416,9 @@
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A272" s="7"/>
+      <c r="A272" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B272" s="3">
         <v>271</v>
       </c>
@@ -30912,7 +31439,9 @@
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A273" s="7"/>
+      <c r="A273" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B273" s="3">
         <v>272</v>
       </c>
@@ -30933,7 +31462,9 @@
       </c>
     </row>
     <row r="274" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A274" s="7"/>
+      <c r="A274" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B274" s="3">
         <v>273</v>
       </c>
@@ -30954,7 +31485,9 @@
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A275" s="7"/>
+      <c r="A275" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B275" s="3">
         <v>274</v>
       </c>
@@ -30975,7 +31508,9 @@
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A276" s="7"/>
+      <c r="A276" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B276" s="3">
         <v>275</v>
       </c>
@@ -30996,7 +31531,9 @@
       </c>
     </row>
     <row r="277" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A277" s="7"/>
+      <c r="A277" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B277" s="3">
         <v>276</v>
       </c>
@@ -31017,7 +31554,9 @@
       </c>
     </row>
     <row r="278" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A278" s="7"/>
+      <c r="A278" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B278" s="3">
         <v>277</v>
       </c>
@@ -31038,7 +31577,9 @@
       </c>
     </row>
     <row r="279" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A279" s="7"/>
+      <c r="A279" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B279" s="3">
         <v>278</v>
       </c>
@@ -31059,7 +31600,9 @@
       </c>
     </row>
     <row r="280" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A280" s="7"/>
+      <c r="A280" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B280" s="3">
         <v>279</v>
       </c>
@@ -31080,7 +31623,9 @@
       </c>
     </row>
     <row r="281" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A281" s="7"/>
+      <c r="A281" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B281" s="3">
         <v>280</v>
       </c>
@@ -31101,7 +31646,9 @@
       </c>
     </row>
     <row r="282" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A282" s="7"/>
+      <c r="A282" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B282" s="3">
         <v>281</v>
       </c>
@@ -31122,7 +31669,9 @@
       </c>
     </row>
     <row r="283" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A283" s="7"/>
+      <c r="A283" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B283" s="3">
         <v>282</v>
       </c>
@@ -31143,7 +31692,9 @@
       </c>
     </row>
     <row r="284" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A284" s="7"/>
+      <c r="A284" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B284" s="3">
         <v>283</v>
       </c>
@@ -31164,7 +31715,9 @@
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A285" s="7"/>
+      <c r="A285" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B285" s="3">
         <v>284</v>
       </c>
@@ -31185,7 +31738,9 @@
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A286" s="7"/>
+      <c r="A286" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B286" s="3">
         <v>285</v>
       </c>
@@ -31206,7 +31761,9 @@
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A287" s="7"/>
+      <c r="A287" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B287" s="3">
         <v>286</v>
       </c>
@@ -31227,7 +31784,9 @@
       </c>
     </row>
     <row r="288" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A288" s="7"/>
+      <c r="A288" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B288" s="3">
         <v>287</v>
       </c>
@@ -31248,7 +31807,9 @@
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A289" s="7"/>
+      <c r="A289" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B289" s="3">
         <v>288</v>
       </c>
@@ -31269,7 +31830,9 @@
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A290" s="7"/>
+      <c r="A290" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B290" s="3">
         <v>289</v>
       </c>
@@ -31290,7 +31853,9 @@
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A291" s="7"/>
+      <c r="A291" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B291" s="3">
         <v>290</v>
       </c>
@@ -31311,7 +31876,9 @@
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A292" s="7"/>
+      <c r="A292" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B292" s="3">
         <v>291</v>
       </c>
@@ -31332,7 +31899,9 @@
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A293" s="7"/>
+      <c r="A293" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B293" s="3">
         <v>292</v>
       </c>
@@ -31353,7 +31922,9 @@
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A294" s="7"/>
+      <c r="A294" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B294" s="3">
         <v>293</v>
       </c>
@@ -31374,7 +31945,9 @@
       </c>
     </row>
     <row r="295" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A295" s="7"/>
+      <c r="A295" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B295" s="3">
         <v>294</v>
       </c>
@@ -31395,7 +31968,9 @@
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A296" s="7"/>
+      <c r="A296" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B296" s="3">
         <v>295</v>
       </c>
@@ -31416,7 +31991,9 @@
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A297" s="7"/>
+      <c r="A297" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B297" s="3">
         <v>296</v>
       </c>
@@ -31437,7 +32014,9 @@
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A298" s="7"/>
+      <c r="A298" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B298" s="3">
         <v>297</v>
       </c>
@@ -31458,7 +32037,9 @@
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A299" s="7"/>
+      <c r="A299" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B299" s="3">
         <v>298</v>
       </c>
@@ -31479,7 +32060,9 @@
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A300" s="7"/>
+      <c r="A300" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B300" s="3">
         <v>299</v>
       </c>
@@ -31500,7 +32083,9 @@
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A301" s="7"/>
+      <c r="A301" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B301" s="3">
         <v>300</v>
       </c>
@@ -31521,7 +32106,9 @@
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A302" s="7"/>
+      <c r="A302" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="B302" s="3">
         <v>301</v>
       </c>
@@ -31542,8 +32129,8 @@
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A303" s="7" t="s">
-        <v>1600</v>
+      <c r="A303" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="B303" s="3">
         <v>302</v>
@@ -31565,7 +32152,9 @@
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A304" s="7"/>
+      <c r="A304" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B304" s="3">
         <v>303</v>
       </c>
@@ -31586,7 +32175,9 @@
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A305" s="7"/>
+      <c r="A305" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B305" s="3">
         <v>304</v>
       </c>
@@ -31607,7 +32198,9 @@
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A306" s="7"/>
+      <c r="A306" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B306" s="3">
         <v>305</v>
       </c>
@@ -31628,7 +32221,9 @@
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A307" s="7"/>
+      <c r="A307" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B307" s="3">
         <v>306</v>
       </c>
@@ -31649,7 +32244,9 @@
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A308" s="7"/>
+      <c r="A308" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B308" s="3">
         <v>307</v>
       </c>
@@ -31670,7 +32267,9 @@
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A309" s="7"/>
+      <c r="A309" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B309" s="3">
         <v>308</v>
       </c>
@@ -31691,7 +32290,9 @@
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A310" s="7"/>
+      <c r="A310" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B310" s="3">
         <v>309</v>
       </c>
@@ -31712,7 +32313,9 @@
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A311" s="7"/>
+      <c r="A311" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B311" s="3">
         <v>310</v>
       </c>
@@ -31733,7 +32336,9 @@
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A312" s="7"/>
+      <c r="A312" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B312" s="3">
         <v>311</v>
       </c>
@@ -31754,7 +32359,9 @@
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A313" s="7"/>
+      <c r="A313" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B313" s="3">
         <v>312</v>
       </c>
@@ -31775,7 +32382,9 @@
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A314" s="7"/>
+      <c r="A314" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B314" s="3">
         <v>313</v>
       </c>
@@ -31796,7 +32405,9 @@
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A315" s="7"/>
+      <c r="A315" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B315" s="3">
         <v>314</v>
       </c>
@@ -31817,7 +32428,9 @@
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A316" s="7"/>
+      <c r="A316" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B316" s="3">
         <v>315</v>
       </c>
@@ -31838,7 +32451,9 @@
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A317" s="7"/>
+      <c r="A317" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B317" s="3">
         <v>316</v>
       </c>
@@ -31859,7 +32474,9 @@
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A318" s="7"/>
+      <c r="A318" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B318" s="3">
         <v>317</v>
       </c>
@@ -31880,7 +32497,9 @@
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A319" s="7"/>
+      <c r="A319" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B319" s="3">
         <v>318</v>
       </c>
@@ -31901,7 +32520,9 @@
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A320" s="7"/>
+      <c r="A320" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B320" s="3">
         <v>319</v>
       </c>
@@ -31922,7 +32543,9 @@
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A321" s="7"/>
+      <c r="A321" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B321" s="3">
         <v>320</v>
       </c>
@@ -31943,7 +32566,9 @@
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A322" s="7"/>
+      <c r="A322" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B322" s="3">
         <v>321</v>
       </c>
@@ -31964,7 +32589,9 @@
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A323" s="7"/>
+      <c r="A323" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B323" s="3">
         <v>322</v>
       </c>
@@ -31985,7 +32612,9 @@
       </c>
     </row>
     <row r="324" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A324" s="7"/>
+      <c r="A324" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B324" s="3">
         <v>323</v>
       </c>
@@ -32006,7 +32635,9 @@
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A325" s="7"/>
+      <c r="A325" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B325" s="3">
         <v>324</v>
       </c>
@@ -32027,7 +32658,9 @@
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A326" s="7"/>
+      <c r="A326" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B326" s="3">
         <v>325</v>
       </c>
@@ -32048,7 +32681,9 @@
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A327" s="7"/>
+      <c r="A327" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B327" s="3">
         <v>326</v>
       </c>
@@ -32069,7 +32704,9 @@
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A328" s="7"/>
+      <c r="A328" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B328" s="3">
         <v>327</v>
       </c>
@@ -32090,7 +32727,9 @@
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A329" s="7"/>
+      <c r="A329" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B329" s="3">
         <v>328</v>
       </c>
@@ -32111,7 +32750,9 @@
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A330" s="7"/>
+      <c r="A330" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B330" s="3">
         <v>329</v>
       </c>
@@ -32132,7 +32773,9 @@
       </c>
     </row>
     <row r="331" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A331" s="7"/>
+      <c r="A331" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B331" s="3">
         <v>330</v>
       </c>
@@ -32153,7 +32796,9 @@
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A332" s="7"/>
+      <c r="A332" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B332" s="3">
         <v>331</v>
       </c>
@@ -32174,7 +32819,9 @@
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A333" s="7"/>
+      <c r="A333" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B333" s="3">
         <v>332</v>
       </c>
@@ -32195,7 +32842,9 @@
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A334" s="7"/>
+      <c r="A334" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B334" s="3">
         <v>333</v>
       </c>
@@ -32216,7 +32865,9 @@
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A335" s="7"/>
+      <c r="A335" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B335" s="3">
         <v>334</v>
       </c>
@@ -32237,7 +32888,9 @@
       </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A336" s="7"/>
+      <c r="A336" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B336" s="3">
         <v>335</v>
       </c>
@@ -32258,7 +32911,9 @@
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A337" s="7"/>
+      <c r="A337" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B337" s="3">
         <v>336</v>
       </c>
@@ -32279,7 +32934,9 @@
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A338" s="7"/>
+      <c r="A338" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B338" s="3">
         <v>337</v>
       </c>
@@ -32300,7 +32957,9 @@
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A339" s="7"/>
+      <c r="A339" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B339" s="3">
         <v>338</v>
       </c>
@@ -32321,7 +32980,9 @@
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A340" s="7"/>
+      <c r="A340" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B340" s="3">
         <v>339</v>
       </c>
@@ -32342,7 +33003,9 @@
       </c>
     </row>
     <row r="341" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A341" s="7"/>
+      <c r="A341" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B341" s="3">
         <v>340</v>
       </c>
@@ -32363,7 +33026,9 @@
       </c>
     </row>
     <row r="342" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A342" s="7"/>
+      <c r="A342" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B342" s="3">
         <v>341</v>
       </c>
@@ -32384,7 +33049,9 @@
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A343" s="7"/>
+      <c r="A343" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B343" s="3">
         <v>342</v>
       </c>
@@ -32405,7 +33072,9 @@
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A344" s="7"/>
+      <c r="A344" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B344" s="3">
         <v>343</v>
       </c>
@@ -32426,7 +33095,9 @@
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A345" s="7"/>
+      <c r="A345" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B345" s="3">
         <v>344</v>
       </c>
@@ -32447,7 +33118,9 @@
       </c>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A346" s="7"/>
+      <c r="A346" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B346" s="3">
         <v>345</v>
       </c>
@@ -32468,7 +33141,9 @@
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A347" s="7"/>
+      <c r="A347" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B347" s="3">
         <v>346</v>
       </c>
@@ -32489,7 +33164,9 @@
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A348" s="7"/>
+      <c r="A348" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B348" s="3">
         <v>347</v>
       </c>
@@ -32510,7 +33187,9 @@
       </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A349" s="7"/>
+      <c r="A349" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B349" s="3">
         <v>348</v>
       </c>
@@ -32531,7 +33210,9 @@
       </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A350" s="7"/>
+      <c r="A350" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B350" s="3">
         <v>349</v>
       </c>
@@ -32552,7 +33233,9 @@
       </c>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A351" s="7"/>
+      <c r="A351" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B351" s="3">
         <v>350</v>
       </c>
@@ -32573,7 +33256,9 @@
       </c>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A352" s="7"/>
+      <c r="A352" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B352" s="3">
         <v>351</v>
       </c>
@@ -32594,7 +33279,9 @@
       </c>
     </row>
     <row r="353" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A353" s="7"/>
+      <c r="A353" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B353" s="3">
         <v>352</v>
       </c>
@@ -32615,7 +33302,9 @@
       </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A354" s="7"/>
+      <c r="A354" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B354" s="3">
         <v>353</v>
       </c>
@@ -32636,7 +33325,9 @@
       </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A355" s="7"/>
+      <c r="A355" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B355" s="3">
         <v>354</v>
       </c>
@@ -32657,7 +33348,9 @@
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A356" s="7"/>
+      <c r="A356" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B356" s="3">
         <v>355</v>
       </c>
@@ -32678,7 +33371,9 @@
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A357" s="7"/>
+      <c r="A357" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B357" s="3">
         <v>356</v>
       </c>
@@ -32699,7 +33394,9 @@
       </c>
     </row>
     <row r="358" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A358" s="7"/>
+      <c r="A358" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B358" s="3">
         <v>357</v>
       </c>
@@ -32720,7 +33417,9 @@
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A359" s="7"/>
+      <c r="A359" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B359" s="3">
         <v>358</v>
       </c>
@@ -32741,7 +33440,9 @@
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A360" s="7"/>
+      <c r="A360" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B360" s="3">
         <v>359</v>
       </c>
@@ -32762,7 +33463,9 @@
       </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A361" s="7"/>
+      <c r="A361" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B361" s="3">
         <v>360</v>
       </c>
@@ -32783,7 +33486,9 @@
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A362" s="7"/>
+      <c r="A362" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B362" s="3">
         <v>361</v>
       </c>
@@ -32804,7 +33509,9 @@
       </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A363" s="7"/>
+      <c r="A363" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B363" s="3">
         <v>362</v>
       </c>
@@ -32825,7 +33532,9 @@
       </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A364" s="7"/>
+      <c r="A364" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B364" s="3">
         <v>363</v>
       </c>
@@ -32846,7 +33555,9 @@
       </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A365" s="7"/>
+      <c r="A365" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B365" s="3">
         <v>364</v>
       </c>
@@ -32867,7 +33578,9 @@
       </c>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A366" s="7"/>
+      <c r="A366" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B366" s="3">
         <v>365</v>
       </c>
@@ -32888,7 +33601,9 @@
       </c>
     </row>
     <row r="367" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A367" s="7"/>
+      <c r="A367" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B367" s="3">
         <v>366</v>
       </c>
@@ -32909,7 +33624,9 @@
       </c>
     </row>
     <row r="368" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A368" s="7"/>
+      <c r="A368" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B368" s="3">
         <v>367</v>
       </c>
@@ -32930,7 +33647,9 @@
       </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A369" s="7"/>
+      <c r="A369" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B369" s="3">
         <v>368</v>
       </c>
@@ -32951,7 +33670,9 @@
       </c>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A370" s="7"/>
+      <c r="A370" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B370" s="3">
         <v>369</v>
       </c>
@@ -32972,7 +33693,9 @@
       </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A371" s="7"/>
+      <c r="A371" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B371" s="3">
         <v>370</v>
       </c>
@@ -32993,7 +33716,9 @@
       </c>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A372" s="7"/>
+      <c r="A372" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B372" s="3">
         <v>371</v>
       </c>
@@ -33014,7 +33739,9 @@
       </c>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A373" s="7"/>
+      <c r="A373" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B373" s="3">
         <v>372</v>
       </c>
@@ -33035,7 +33762,9 @@
       </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A374" s="7"/>
+      <c r="A374" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B374" s="3">
         <v>373</v>
       </c>
@@ -33056,7 +33785,9 @@
       </c>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A375" s="7"/>
+      <c r="A375" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B375" s="3">
         <v>374</v>
       </c>
@@ -33077,7 +33808,9 @@
       </c>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A376" s="7"/>
+      <c r="A376" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B376" s="3">
         <v>375</v>
       </c>
@@ -33098,7 +33831,9 @@
       </c>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A377" s="7"/>
+      <c r="A377" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B377" s="3">
         <v>376</v>
       </c>
@@ -33119,7 +33854,9 @@
       </c>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A378" s="7"/>
+      <c r="A378" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B378" s="3">
         <v>377</v>
       </c>
@@ -33140,7 +33877,9 @@
       </c>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A379" s="7"/>
+      <c r="A379" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B379" s="3">
         <v>378</v>
       </c>
@@ -33161,7 +33900,9 @@
       </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A380" s="7"/>
+      <c r="A380" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B380" s="3">
         <v>379</v>
       </c>
@@ -33182,7 +33923,9 @@
       </c>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A381" s="7"/>
+      <c r="A381" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B381" s="3">
         <v>380</v>
       </c>
@@ -33203,7 +33946,9 @@
       </c>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A382" s="7"/>
+      <c r="A382" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B382" s="3">
         <v>381</v>
       </c>
@@ -33224,7 +33969,9 @@
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A383" s="7"/>
+      <c r="A383" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B383" s="3">
         <v>382</v>
       </c>
@@ -33245,7 +33992,9 @@
       </c>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A384" s="7"/>
+      <c r="A384" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B384" s="3">
         <v>383</v>
       </c>
@@ -33266,7 +34015,9 @@
       </c>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A385" s="7"/>
+      <c r="A385" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B385" s="3">
         <v>384</v>
       </c>
@@ -33287,7 +34038,9 @@
       </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A386" s="7"/>
+      <c r="A386" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B386" s="3">
         <v>385</v>
       </c>
@@ -33308,7 +34061,9 @@
       </c>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A387" s="7"/>
+      <c r="A387" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B387" s="3">
         <v>386</v>
       </c>
@@ -33329,7 +34084,9 @@
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A388" s="7"/>
+      <c r="A388" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B388" s="3">
         <v>387</v>
       </c>
@@ -33350,7 +34107,9 @@
       </c>
     </row>
     <row r="389" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A389" s="7"/>
+      <c r="A389" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B389" s="3">
         <v>388</v>
       </c>
@@ -33371,7 +34130,9 @@
       </c>
     </row>
     <row r="390" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A390" s="7"/>
+      <c r="A390" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B390" s="3">
         <v>389</v>
       </c>
@@ -33392,7 +34153,9 @@
       </c>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A391" s="7"/>
+      <c r="A391" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B391" s="3">
         <v>390</v>
       </c>
@@ -33413,7 +34176,9 @@
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A392" s="7"/>
+      <c r="A392" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B392" s="3">
         <v>391</v>
       </c>
@@ -33434,7 +34199,9 @@
       </c>
     </row>
     <row r="393" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A393" s="7"/>
+      <c r="A393" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B393" s="3">
         <v>392</v>
       </c>
@@ -33455,7 +34222,9 @@
       </c>
     </row>
     <row r="394" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A394" s="7"/>
+      <c r="A394" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B394" s="3">
         <v>393</v>
       </c>
@@ -33476,7 +34245,9 @@
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A395" s="7"/>
+      <c r="A395" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B395" s="3">
         <v>394</v>
       </c>
@@ -33497,7 +34268,9 @@
       </c>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A396" s="7"/>
+      <c r="A396" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B396" s="3">
         <v>395</v>
       </c>
@@ -33518,7 +34291,9 @@
       </c>
     </row>
     <row r="397" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A397" s="7"/>
+      <c r="A397" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B397" s="3">
         <v>396</v>
       </c>
@@ -33539,7 +34314,9 @@
       </c>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A398" s="7"/>
+      <c r="A398" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B398" s="3">
         <v>397</v>
       </c>
@@ -33560,7 +34337,9 @@
       </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A399" s="7"/>
+      <c r="A399" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B399" s="3">
         <v>398</v>
       </c>
@@ -33581,7 +34360,9 @@
       </c>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A400" s="7"/>
+      <c r="A400" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B400" s="3">
         <v>399</v>
       </c>
@@ -33602,7 +34383,9 @@
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A401" s="7"/>
+      <c r="A401" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B401" s="3">
         <v>400</v>
       </c>
@@ -33623,7 +34406,9 @@
       </c>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A402" s="7"/>
+      <c r="A402" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B402" s="3">
         <v>401</v>
       </c>
@@ -33644,7 +34429,9 @@
       </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A403" s="7"/>
+      <c r="A403" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B403" s="3">
         <v>402</v>
       </c>
@@ -33665,7 +34452,9 @@
       </c>
     </row>
     <row r="404" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A404" s="7"/>
+      <c r="A404" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B404" s="3">
         <v>403</v>
       </c>
@@ -33686,7 +34475,9 @@
       </c>
     </row>
     <row r="405" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A405" s="7"/>
+      <c r="A405" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B405" s="3">
         <v>404</v>
       </c>
@@ -33707,7 +34498,9 @@
       </c>
     </row>
     <row r="406" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A406" s="7"/>
+      <c r="A406" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B406" s="3">
         <v>405</v>
       </c>
@@ -33728,7 +34521,9 @@
       </c>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A407" s="7"/>
+      <c r="A407" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B407" s="3">
         <v>406</v>
       </c>
@@ -33749,7 +34544,9 @@
       </c>
     </row>
     <row r="408" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A408" s="7"/>
+      <c r="A408" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B408" s="3">
         <v>407</v>
       </c>
@@ -33770,7 +34567,9 @@
       </c>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A409" s="7"/>
+      <c r="A409" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B409" s="3">
         <v>408</v>
       </c>
@@ -33791,7 +34590,9 @@
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A410" s="7"/>
+      <c r="A410" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B410" s="3">
         <v>409</v>
       </c>
@@ -33812,7 +34613,9 @@
       </c>
     </row>
     <row r="411" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A411" s="7"/>
+      <c r="A411" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B411" s="3">
         <v>410</v>
       </c>
@@ -33833,7 +34636,9 @@
       </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A412" s="7"/>
+      <c r="A412" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B412" s="3">
         <v>411</v>
       </c>
@@ -33854,7 +34659,9 @@
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A413" s="7"/>
+      <c r="A413" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B413" s="3">
         <v>412</v>
       </c>
@@ -33875,7 +34682,9 @@
       </c>
     </row>
     <row r="414" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A414" s="7"/>
+      <c r="A414" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="B414" s="3">
         <v>413</v>
       </c>
@@ -33896,8 +34705,12 @@
       </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A415" s="7"/>
-      <c r="B415" s="3"/>
+      <c r="A415" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="B415" s="3">
+        <v>414</v>
+      </c>
       <c r="C415" s="3" t="s">
         <v>1539</v>
       </c>
@@ -33915,8 +34728,12 @@
       </c>
     </row>
     <row r="416" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A416" s="7"/>
-      <c r="B416" s="3"/>
+      <c r="A416" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="B416" s="3">
+        <v>415</v>
+      </c>
       <c r="C416" s="3" t="s">
         <v>1544</v>
       </c>
@@ -33934,8 +34751,12 @@
       </c>
     </row>
     <row r="417" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A417" s="7"/>
-      <c r="B417" s="3"/>
+      <c r="A417" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="B417" s="3">
+        <v>416</v>
+      </c>
       <c r="C417" s="3" t="s">
         <v>1549</v>
       </c>
@@ -33953,8 +34774,12 @@
       </c>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A418" s="7"/>
-      <c r="B418" s="3"/>
+      <c r="A418" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="B418" s="3">
+        <v>417</v>
+      </c>
       <c r="C418" s="3" t="s">
         <v>1554</v>
       </c>
@@ -33972,8 +34797,12 @@
       </c>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A419" s="7"/>
-      <c r="B419" s="3"/>
+      <c r="A419" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="B419" s="3">
+        <v>418</v>
+      </c>
       <c r="C419" s="3" t="s">
         <v>1559</v>
       </c>
@@ -33991,8 +34820,12 @@
       </c>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A420" s="7"/>
-      <c r="B420" s="3"/>
+      <c r="A420" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="B420" s="3">
+        <v>419</v>
+      </c>
       <c r="C420" s="3" t="s">
         <v>1563</v>
       </c>
@@ -34010,8 +34843,12 @@
       </c>
     </row>
     <row r="421" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A421" s="7"/>
-      <c r="B421" s="3"/>
+      <c r="A421" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="B421" s="3">
+        <v>420</v>
+      </c>
       <c r="C421" s="3" t="s">
         <v>1568</v>
       </c>
@@ -34029,8 +34866,12 @@
       </c>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A422" s="7"/>
-      <c r="B422" s="3"/>
+      <c r="A422" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="B422" s="3">
+        <v>421</v>
+      </c>
       <c r="C422" s="3" t="s">
         <v>1573</v>
       </c>
@@ -34048,8 +34889,12 @@
       </c>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A423" s="7"/>
-      <c r="B423" s="3"/>
+      <c r="A423" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="B423" s="3">
+        <v>422</v>
+      </c>
       <c r="C423" s="3" t="s">
         <v>1578</v>
       </c>
@@ -34067,8 +34912,12 @@
       </c>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A424" s="7"/>
-      <c r="B424" s="3"/>
+      <c r="A424" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="B424" s="3">
+        <v>423</v>
+      </c>
       <c r="C424" s="3" t="s">
         <v>1583</v>
       </c>
@@ -34086,8 +34935,12 @@
       </c>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A425" s="7"/>
-      <c r="B425" s="3"/>
+      <c r="A425" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="B425" s="3">
+        <v>424</v>
+      </c>
       <c r="C425" s="3" t="s">
         <v>1587</v>
       </c>
@@ -34105,8 +34958,12 @@
       </c>
     </row>
     <row r="426" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A426" s="7"/>
-      <c r="B426" s="3"/>
+      <c r="A426" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="B426" s="3">
+        <v>425</v>
+      </c>
       <c r="C426" s="3" t="s">
         <v>1592</v>
       </c>
@@ -34124,8 +34981,12 @@
       </c>
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A427" s="8"/>
-      <c r="B427" s="3"/>
+      <c r="A427" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="B427" s="3">
+        <v>426</v>
+      </c>
       <c r="C427" s="3" t="s">
         <v>1596</v>
       </c>

--- a/src/ontology/terms-extraction/cpptraj-10k-occurence_merged.xlsx
+++ b/src/ontology/terms-extraction/cpptraj-10k-occurence_merged.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\fathoni\github\molsim-ontology\src\ontology\terms-extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C0DC61-1303-423E-B8D9-664D0892F218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A522B0B2-41EC-4F5B-86BB-04DC22D30E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1710" yWindow="-18120" windowWidth="29040" windowHeight="17520" activeTab="3" xr2:uid="{41106041-1982-4E74-9156-BB0487A0D691}"/>
+    <workbookView xWindow="1500" yWindow="-18120" windowWidth="29040" windowHeight="17520" activeTab="3" xr2:uid="{41106041-1982-4E74-9156-BB0487A0D691}"/>
   </bookViews>
   <sheets>
     <sheet name="deduplicated" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,9 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -17390,7 +17393,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="25" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -17490,7 +17493,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="25" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -18150,7 +18153,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="25" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -19130,7 +19133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="25" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
         <v>125</v>
       </c>
@@ -24490,7 +24493,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="394" spans="1:6" ht="25" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A394" s="3">
         <v>393</v>
       </c>
@@ -24967,7 +24970,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="418" spans="1:8" ht="25" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A418" s="3"/>
       <c r="B418" s="3" t="s">
         <v>1554</v>
@@ -25166,8 +25169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23C3501C-AE45-46A7-8757-17633D9B7137}">
   <dimension ref="A1:G427"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A397" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E402" sqref="E402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
